--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{88F44F33-E8D2-4E18-A958-9508F1739303}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F81421C-A94C-4967-94F3-4ADC9D3CDA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/20/20</t>
+    <t>Created 02/21/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1575,7 +1575,7 @@
   </sheetPr>
   <dimension ref="A2:Q80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1604,7 +1604,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/20/20</v>
+        <v>Created 02/21/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6916,6 +6916,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -6925,11 +6930,6 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8251,11 +8251,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F34:T34"/>
     <mergeCell ref="F36:T36"/>
     <mergeCell ref="F38:T38"/>
     <mergeCell ref="F40:T40"/>
@@ -8265,6 +8260,11 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F32:T32"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F34:T34"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:T12"/>
     <mergeCell ref="H17:M17"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\Excel templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F81421C-A94C-4967-94F3-4ADC9D3CDA03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04481987-1715-4D5A-AAE3-09F3C365BCA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>Imp.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -271,7 +268,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/21/20</t>
+    <t>Created 02/24/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1604,7 +1601,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/21/20</v>
+        <v>Created 02/24/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1814,7 +1811,7 @@
     </row>
     <row r="11" ht="24" customHeight="1">
       <c r="B11" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C11" s="66">
         <v>384.61538461538464</v>
@@ -1908,7 +1905,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="70">
         <v>923.07692307692275</v>
@@ -1955,7 +1952,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="93"/>
@@ -1974,7 +1971,7 @@
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="98" t="s">
         <v>55</v>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C20" s="66">
         <v>384.61538461538464</v>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="70">
         <v>923.07692307692275</v>
@@ -2279,7 +2276,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="93"/>
@@ -2298,23 +2295,23 @@
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="98" t="s">
         <v>63</v>
-      </c>
-      <c r="C25" s="98" t="s">
-        <v>64</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
       <c r="F25" s="99"/>
       <c r="G25" s="100"/>
       <c r="H25" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="99"/>
       <c r="J25" s="99"/>
       <c r="K25" s="100"/>
       <c r="L25" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M25" s="99"/>
       <c r="N25" s="99"/>
@@ -2462,7 +2459,7 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="B29" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C29" s="66">
         <v>384.61538461538464</v>
@@ -2556,7 +2553,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="70">
         <v>923.07692307692275</v>
@@ -2603,7 +2600,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="92"/>
       <c r="D32" s="93"/>
@@ -2622,23 +2619,23 @@
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="99"/>
       <c r="E34" s="99"/>
       <c r="F34" s="99"/>
       <c r="G34" s="100"/>
       <c r="H34" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I34" s="99"/>
       <c r="J34" s="99"/>
       <c r="K34" s="100"/>
       <c r="L34" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M34" s="99"/>
       <c r="N34" s="99"/>
@@ -2786,7 +2783,7 @@
     </row>
     <row r="38" ht="24" customHeight="1">
       <c r="B38" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C38" s="66">
         <v>384.61538461538464</v>
@@ -2880,7 +2877,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="70">
         <v>923.07692307692275</v>
@@ -2927,7 +2924,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="92"/>
       <c r="D41" s="93"/>
@@ -2946,23 +2943,23 @@
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="98" t="s">
         <v>68</v>
-      </c>
-      <c r="C43" s="98" t="s">
-        <v>69</v>
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="99"/>
       <c r="F43" s="99"/>
       <c r="G43" s="100"/>
       <c r="H43" s="99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I43" s="99"/>
       <c r="J43" s="99"/>
       <c r="K43" s="100"/>
       <c r="L43" s="98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M43" s="99"/>
       <c r="N43" s="99"/>
@@ -3120,7 +3117,7 @@
     </row>
     <row r="47" ht="24" customHeight="1">
       <c r="B47" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C47" s="66">
         <v>357.14285714285722</v>
@@ -3220,7 +3217,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="70">
         <v>857.14285714285677</v>
@@ -3270,7 +3267,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="92"/>
       <c r="D50" s="93"/>
@@ -3290,23 +3287,23 @@
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="99"/>
       <c r="E52" s="99"/>
       <c r="F52" s="99"/>
       <c r="G52" s="100"/>
       <c r="H52" s="99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I52" s="99"/>
       <c r="J52" s="99"/>
       <c r="K52" s="100"/>
       <c r="L52" s="98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M52" s="99"/>
       <c r="N52" s="99"/>
@@ -3464,7 +3461,7 @@
     </row>
     <row r="56" ht="24" customHeight="1">
       <c r="B56" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C56" s="66">
         <v>357.14285714285722</v>
@@ -3564,7 +3561,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="70">
         <v>857.14285714285677</v>
@@ -3614,7 +3611,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="92"/>
       <c r="D59" s="93"/>
@@ -3634,22 +3631,22 @@
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="99"/>
       <c r="F61" s="100"/>
       <c r="G61" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H61" s="99"/>
       <c r="I61" s="99"/>
       <c r="J61" s="100"/>
       <c r="K61" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L61" s="99"/>
       <c r="M61" s="99"/>
@@ -3798,7 +3795,7 @@
     </row>
     <row r="65" ht="24" customHeight="1">
       <c r="B65" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C65" s="66">
         <v>384.61538461538464</v>
@@ -3892,7 +3889,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="70">
         <v>923.07692307692275</v>
@@ -3939,7 +3936,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="92"/>
       <c r="D68" s="93"/>
@@ -3958,22 +3955,22 @@
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="99"/>
       <c r="F70" s="100"/>
       <c r="G70" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H70" s="99"/>
       <c r="I70" s="99"/>
       <c r="J70" s="100"/>
       <c r="K70" s="98" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L70" s="99"/>
       <c r="M70" s="99"/>
@@ -4122,7 +4119,7 @@
     </row>
     <row r="74" ht="24" customHeight="1">
       <c r="B74" s="61" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C74" s="66">
         <v>384.61538461538464</v>
@@ -4216,7 +4213,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="70">
         <v>923.07692307692275</v>
@@ -4263,7 +4260,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C77" s="92"/>
       <c r="D77" s="93"/>
@@ -4414,7 +4411,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -4447,7 +4444,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4708,7 +4705,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6916,11 +6913,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -6930,6 +6922,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -6970,10 +6967,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -7008,24 +7005,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
       <c r="H5" s="95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="95"/>
       <c r="J5" s="95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="76" t="s">
@@ -7057,7 +7054,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -7072,7 +7069,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="100"/>
       <c r="N7" s="98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O7" s="99"/>
       <c r="P7" s="99"/>
@@ -7083,14 +7080,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -7143,14 +7140,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
@@ -7205,7 +7202,7 @@
       <c r="B10" s="25"/>
       <c r="C10" s="39"/>
       <c r="D10" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="51">
         <v>0</v>
@@ -7258,7 +7255,7 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="C12" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="7"/>
@@ -7273,7 +7270,7 @@
       <c r="L12" s="99"/>
       <c r="M12" s="100"/>
       <c r="N12" s="98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O12" s="99"/>
       <c r="P12" s="99"/>
@@ -7284,14 +7281,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>23</v>
@@ -7344,14 +7341,14 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E14" s="83">
         <v>0</v>
@@ -7406,7 +7403,7 @@
       <c r="B15" s="25"/>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="51">
         <v>0</v>
@@ -7459,7 +7456,7 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="C17" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="7"/>
@@ -7474,7 +7471,7 @@
       <c r="L17" s="99"/>
       <c r="M17" s="100"/>
       <c r="N17" s="98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O17" s="99"/>
       <c r="P17" s="99"/>
@@ -7485,14 +7482,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>23</v>
@@ -7545,14 +7542,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
@@ -7607,7 +7604,7 @@
       <c r="B20" s="25"/>
       <c r="C20" s="39"/>
       <c r="D20" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="51">
         <v>0</v>
@@ -7660,7 +7657,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="C22" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="7"/>
@@ -7675,7 +7672,7 @@
       <c r="L22" s="99"/>
       <c r="M22" s="100"/>
       <c r="N22" s="98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O22" s="99"/>
       <c r="P22" s="99"/>
@@ -7686,14 +7683,14 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>23</v>
@@ -7746,14 +7743,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E24" s="83">
         <v>0</v>
@@ -7808,7 +7805,7 @@
       <c r="B25" s="25"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="51">
         <v>0</v>
@@ -7876,7 +7873,7 @@
       <c r="L27" s="99"/>
       <c r="M27" s="100"/>
       <c r="N27" s="98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="99"/>
       <c r="P27" s="99"/>
@@ -7887,14 +7884,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>23</v>
@@ -7947,14 +7944,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E29" s="83">
         <v>0</v>
@@ -8009,7 +8006,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="39"/>
       <c r="D30" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E30" s="51">
         <v>0</v>
@@ -8067,7 +8064,7 @@
       <c r="D32" s="55"/>
       <c r="E32" s="81"/>
       <c r="F32" s="104" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G32" s="104"/>
       <c r="H32" s="104"/>
@@ -8109,7 +8106,7 @@
       </c>
       <c r="D34" s="55"/>
       <c r="F34" s="104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="104"/>
       <c r="H34" s="104"/>
@@ -8232,7 +8229,7 @@
       </c>
       <c r="D40" s="55"/>
       <c r="F40" s="96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" s="96"/>
       <c r="H40" s="96"/>
@@ -8251,6 +8248,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F34:T34"/>
     <mergeCell ref="F36:T36"/>
     <mergeCell ref="F38:T38"/>
     <mergeCell ref="F40:T40"/>
@@ -8260,11 +8262,6 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F32:T32"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F34:T34"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:T12"/>
     <mergeCell ref="H17:M17"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -196,7 +196,7 @@
     <t>Posting</t>
   </si>
   <si>
-    <t xml:space="preserve">2Q '20 ENLN :30s </t>
+    <t>2Q '20 ENLN :30s</t>
   </si>
   <si>
     <t>April</t>
@@ -220,7 +220,7 @@
     <t>2Q '20 ENLN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '21 ENLN :30s </t>
+    <t>1Q '21 ENLN :30s</t>
   </si>
   <si>
     <t>January</t>
@@ -235,7 +235,7 @@
     <t>1Q '21 ENLN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">4Q '23 ENLN :30s </t>
+    <t>4Q '23 ENLN :30s</t>
   </si>
   <si>
     <t>October</t>
@@ -250,7 +250,7 @@
     <t>4Q '23 ENLN Total</t>
   </si>
   <si>
-    <t xml:space="preserve">1Q '24 ENLN :30s </t>
+    <t>1Q '24 ENLN :30s</t>
   </si>
   <si>
     <t>1Q '24 ENLN Total</t>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="87">
-        <v>4.5411580820137383</v>
+        <v>4.0285099091308858</v>
       </c>
       <c r="J19" s="83">
         <v>0</v>
@@ -7576,7 +7576,7 @@
         <v>2.469957622213117</v>
       </c>
       <c r="M19" s="85">
-        <v>2642.4977468916245</v>
+        <v>2978.7688923890169</v>
       </c>
       <c r="N19" s="89">
         <v>1.0291490092554654</v>
@@ -7619,7 +7619,7 @@
         <v>38</v>
       </c>
       <c r="I20" s="79">
-        <v>4.5411580820137383</v>
+        <v>4.0285099091308858</v>
       </c>
       <c r="J20" s="51" t="s">
         <v>38</v>
@@ -7631,7 +7631,7 @@
         <v>2.469957622213117</v>
       </c>
       <c r="M20" s="43">
-        <v>2642.4977468916245</v>
+        <v>2978.7688923890169</v>
       </c>
       <c r="N20" s="45" t="s">
         <v>38</v>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="87">
-        <v>18.164632328054957</v>
+        <v>17.6519841551721</v>
       </c>
       <c r="J29" s="83">
         <v>0</v>
@@ -7978,7 +7978,7 @@
         <v>2.469957622213117</v>
       </c>
       <c r="M29" s="85">
-        <v>2642.4977468916186</v>
+        <v>2719.2410540395717</v>
       </c>
       <c r="N29" s="89">
         <v>1.0291490092554654</v>
@@ -8021,7 +8021,7 @@
         <v>38</v>
       </c>
       <c r="I30" s="79">
-        <v>18.164632328054957</v>
+        <v>17.6519841551721</v>
       </c>
       <c r="J30" s="51" t="s">
         <v>38</v>
@@ -8033,7 +8033,7 @@
         <v>2.469957622213117</v>
       </c>
       <c r="M30" s="43">
-        <v>2642.4977468916186</v>
+        <v>2719.2410540395717</v>
       </c>
       <c r="N30" s="45" t="s">
         <v>38</v>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04481987-1715-4D5A-AAE3-09F3C365BCA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3EB8DD41-BA33-4302-AB61-07D30AE281FC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,6 +196,9 @@
     <t>Posting</t>
   </si>
   <si>
+    <t>ENLN - M-F 04:00pm - 12:05am</t>
+  </si>
+  <si>
     <t>2Q '20 ENLN :30s</t>
   </si>
   <si>
@@ -268,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/24/20</t>
+    <t>Created 02/25/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -317,9 +320,6 @@
   </si>
   <si>
     <t>~80% Minimum TV HH Coverage</t>
-  </si>
-  <si>
-    <t>ENLN - M-F 04:00pm - 12:05am</t>
   </si>
   <si>
     <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
@@ -1573,7 +1573,7 @@
   <dimension ref="A2:Q80"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1601,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/24/20</v>
+        <v>Created 02/25/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1625,9 +1625,8 @@
         <f>'PROPOSAL'!N5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="95" t="str">
-        <f>'PROPOSAL'!F34</f>
-        <v>ENLN - M-F 04:00pm - 12:05am</v>
+      <c r="D5" s="95" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="95"/>
       <c r="F5" s="95"/>
@@ -1647,23 +1646,23 @@
     </row>
     <row r="7">
       <c r="B7" s="53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D7" s="99"/>
       <c r="E7" s="99"/>
       <c r="F7" s="100"/>
       <c r="G7" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="99"/>
       <c r="I7" s="99"/>
       <c r="J7" s="99"/>
       <c r="K7" s="100"/>
       <c r="L7" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="99"/>
       <c r="N7" s="99"/>
@@ -1717,7 +1716,7 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="B9" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="63">
         <v>0.019230769230769246</v>
@@ -1905,7 +1904,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="70">
         <v>923.07692307692275</v>
@@ -1952,7 +1951,7 @@
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="B14" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="93"/>
@@ -1971,23 +1970,23 @@
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="99"/>
       <c r="E16" s="99"/>
       <c r="F16" s="100"/>
       <c r="G16" s="99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="99"/>
       <c r="I16" s="99"/>
       <c r="J16" s="99"/>
       <c r="K16" s="100"/>
       <c r="L16" s="98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M16" s="99"/>
       <c r="N16" s="99"/>
@@ -2041,7 +2040,7 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="B18" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="63">
         <v>0.019230769230769246</v>
@@ -2229,7 +2228,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="B22" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="70">
         <v>923.07692307692275</v>
@@ -2276,7 +2275,7 @@
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="B23" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="92"/>
       <c r="D23" s="93"/>
@@ -2295,23 +2294,23 @@
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="99"/>
       <c r="E25" s="99"/>
       <c r="F25" s="99"/>
       <c r="G25" s="100"/>
       <c r="H25" s="99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I25" s="99"/>
       <c r="J25" s="99"/>
       <c r="K25" s="100"/>
       <c r="L25" s="98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M25" s="99"/>
       <c r="N25" s="99"/>
@@ -2365,7 +2364,7 @@
     </row>
     <row r="27" ht="24" customHeight="1">
       <c r="B27" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="63">
         <v>0.019230769230769246</v>
@@ -2553,7 +2552,7 @@
     </row>
     <row r="31" ht="24" customHeight="1">
       <c r="B31" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="70">
         <v>923.07692307692275</v>
@@ -2600,7 +2599,7 @@
     </row>
     <row r="32" ht="30" customHeight="1">
       <c r="B32" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="92"/>
       <c r="D32" s="93"/>
@@ -2619,23 +2618,23 @@
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="99"/>
       <c r="E34" s="99"/>
       <c r="F34" s="99"/>
       <c r="G34" s="100"/>
       <c r="H34" s="99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I34" s="99"/>
       <c r="J34" s="99"/>
       <c r="K34" s="100"/>
       <c r="L34" s="98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M34" s="99"/>
       <c r="N34" s="99"/>
@@ -2689,7 +2688,7 @@
     </row>
     <row r="36" ht="24" customHeight="1">
       <c r="B36" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="63">
         <v>0.019230769230769246</v>
@@ -2877,7 +2876,7 @@
     </row>
     <row r="40" ht="24" customHeight="1">
       <c r="B40" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="70">
         <v>923.07692307692275</v>
@@ -2924,7 +2923,7 @@
     </row>
     <row r="41" ht="30" customHeight="1">
       <c r="B41" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="92"/>
       <c r="D41" s="93"/>
@@ -2943,23 +2942,23 @@
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="99"/>
       <c r="F43" s="99"/>
       <c r="G43" s="100"/>
       <c r="H43" s="99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I43" s="99"/>
       <c r="J43" s="99"/>
       <c r="K43" s="100"/>
       <c r="L43" s="98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M43" s="99"/>
       <c r="N43" s="99"/>
@@ -3017,7 +3016,7 @@
     </row>
     <row r="45" ht="24" customHeight="1">
       <c r="B45" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="63">
         <v>0.017857142857142873</v>
@@ -3217,7 +3216,7 @@
     </row>
     <row r="49" ht="24" customHeight="1">
       <c r="B49" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="70">
         <v>857.14285714285677</v>
@@ -3267,7 +3266,7 @@
     </row>
     <row r="50" ht="30" customHeight="1">
       <c r="B50" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="92"/>
       <c r="D50" s="93"/>
@@ -3287,23 +3286,23 @@
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D52" s="99"/>
       <c r="E52" s="99"/>
       <c r="F52" s="99"/>
       <c r="G52" s="100"/>
       <c r="H52" s="99" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I52" s="99"/>
       <c r="J52" s="99"/>
       <c r="K52" s="100"/>
       <c r="L52" s="98" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M52" s="99"/>
       <c r="N52" s="99"/>
@@ -3361,7 +3360,7 @@
     </row>
     <row r="54" ht="24" customHeight="1">
       <c r="B54" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="63">
         <v>0.017857142857142873</v>
@@ -3561,7 +3560,7 @@
     </row>
     <row r="58" ht="24" customHeight="1">
       <c r="B58" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58" s="70">
         <v>857.14285714285677</v>
@@ -3611,7 +3610,7 @@
     </row>
     <row r="59" ht="30" customHeight="1">
       <c r="B59" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59" s="92"/>
       <c r="D59" s="93"/>
@@ -3631,22 +3630,22 @@
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="99"/>
       <c r="F61" s="100"/>
       <c r="G61" s="99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H61" s="99"/>
       <c r="I61" s="99"/>
       <c r="J61" s="100"/>
       <c r="K61" s="98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L61" s="99"/>
       <c r="M61" s="99"/>
@@ -3701,7 +3700,7 @@
     </row>
     <row r="63" ht="24" customHeight="1">
       <c r="B63" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="63">
         <v>0.019230769230769246</v>
@@ -3889,7 +3888,7 @@
     </row>
     <row r="67" ht="24" customHeight="1">
       <c r="B67" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" s="70">
         <v>923.07692307692275</v>
@@ -3936,7 +3935,7 @@
     </row>
     <row r="68" ht="30" customHeight="1">
       <c r="B68" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" s="92"/>
       <c r="D68" s="93"/>
@@ -3955,22 +3954,22 @@
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" s="98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="99"/>
       <c r="F70" s="100"/>
       <c r="G70" s="99" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H70" s="99"/>
       <c r="I70" s="99"/>
       <c r="J70" s="100"/>
       <c r="K70" s="98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L70" s="99"/>
       <c r="M70" s="99"/>
@@ -4025,7 +4024,7 @@
     </row>
     <row r="72" ht="24" customHeight="1">
       <c r="B72" s="62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72" s="63">
         <v>0.019230769230769246</v>
@@ -4213,7 +4212,7 @@
     </row>
     <row r="76" ht="24" customHeight="1">
       <c r="B76" s="61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C76" s="70">
         <v>923.07692307692275</v>
@@ -4260,7 +4259,7 @@
     </row>
     <row r="77" ht="30" customHeight="1">
       <c r="B77" s="90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="92"/>
       <c r="D77" s="93"/>
@@ -4411,7 +4410,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -4444,7 +4443,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4705,7 +4704,7 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6942,7 +6941,7 @@
   </sheetPr>
   <dimension ref="A2:T40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -6967,10 +6966,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -7005,24 +7004,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="95" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
       <c r="H5" s="95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="95"/>
       <c r="J5" s="95" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="76" t="s">
@@ -7054,7 +7053,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -7069,7 +7068,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="100"/>
       <c r="N7" s="98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O7" s="99"/>
       <c r="P7" s="99"/>
@@ -7080,14 +7079,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -7140,14 +7139,14 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="83">
         <v>0</v>
@@ -7202,7 +7201,7 @@
       <c r="B10" s="25"/>
       <c r="C10" s="39"/>
       <c r="D10" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="51">
         <v>0</v>
@@ -7255,7 +7254,7 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="C12" s="53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="7"/>
@@ -7270,7 +7269,7 @@
       <c r="L12" s="99"/>
       <c r="M12" s="100"/>
       <c r="N12" s="98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O12" s="99"/>
       <c r="P12" s="99"/>
@@ -7281,14 +7280,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>23</v>
@@ -7341,14 +7340,14 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="83">
         <v>0</v>
@@ -7403,7 +7402,7 @@
       <c r="B15" s="25"/>
       <c r="C15" s="39"/>
       <c r="D15" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E15" s="51">
         <v>0</v>
@@ -7456,7 +7455,7 @@
     </row>
     <row r="17" ht="24" customHeight="1">
       <c r="C17" s="53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="7"/>
@@ -7471,7 +7470,7 @@
       <c r="L17" s="99"/>
       <c r="M17" s="100"/>
       <c r="N17" s="98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O17" s="99"/>
       <c r="P17" s="99"/>
@@ -7482,14 +7481,14 @@
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>23</v>
@@ -7542,14 +7541,14 @@
     </row>
     <row r="19" ht="24" customHeight="1">
       <c r="A19" s="80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" s="83">
         <v>0</v>
@@ -7604,7 +7603,7 @@
       <c r="B20" s="25"/>
       <c r="C20" s="39"/>
       <c r="D20" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E20" s="51">
         <v>0</v>
@@ -7657,7 +7656,7 @@
     </row>
     <row r="22" ht="24" customHeight="1">
       <c r="C22" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="7"/>
@@ -7672,7 +7671,7 @@
       <c r="L22" s="99"/>
       <c r="M22" s="100"/>
       <c r="N22" s="98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O22" s="99"/>
       <c r="P22" s="99"/>
@@ -7683,14 +7682,14 @@
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>23</v>
@@ -7743,14 +7742,14 @@
     </row>
     <row r="24" ht="24" customHeight="1">
       <c r="A24" s="80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E24" s="83">
         <v>0</v>
@@ -7805,7 +7804,7 @@
       <c r="B25" s="25"/>
       <c r="C25" s="39"/>
       <c r="D25" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="51">
         <v>0</v>
@@ -7873,7 +7872,7 @@
       <c r="L27" s="99"/>
       <c r="M27" s="100"/>
       <c r="N27" s="98" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="99"/>
       <c r="P27" s="99"/>
@@ -7884,14 +7883,14 @@
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" s="40" t="s">
         <v>23</v>
@@ -7944,14 +7943,14 @@
     </row>
     <row r="29" ht="24" customHeight="1">
       <c r="A29" s="80" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="83">
         <v>0</v>
@@ -8006,7 +8005,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="39"/>
       <c r="D30" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" s="51">
         <v>0</v>
@@ -8064,7 +8063,7 @@
       <c r="D32" s="55"/>
       <c r="E32" s="81"/>
       <c r="F32" s="104" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G32" s="104"/>
       <c r="H32" s="104"/>
@@ -8106,7 +8105,7 @@
       </c>
       <c r="D34" s="55"/>
       <c r="F34" s="104" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="G34" s="104"/>
       <c r="H34" s="104"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -271,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/25/20</t>
+    <t>Created 02/26/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="103">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -871,9 +871,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="2"/>
     </xf>
@@ -939,9 +936,6 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1601,7 +1595,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/25/20</v>
+        <v>Created 02/26/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1625,21 +1619,21 @@
         <f>'PROPOSAL'!N5</f>
         <v>NTI</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
     </row>
     <row r="6" ht="24" customHeight="1">
       <c r="P6" s="60"/>
@@ -1648,25 +1642,25 @@
       <c r="B7" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="99" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="98" t="s">
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="100"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="99"/>
       <c r="P7" s="30"/>
     </row>
     <row r="8" ht="24" customHeight="1">
@@ -1950,47 +1944,47 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="90"/>
     </row>
     <row r="16">
       <c r="B16" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="99" t="s">
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="98" t="s">
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="100"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="99"/>
       <c r="P16" s="30"/>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -2274,47 +2268,47 @@
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="90"/>
     </row>
     <row r="25">
       <c r="B25" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="99" t="s">
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="98" t="s">
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="100"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="99"/>
       <c r="P25" s="30"/>
     </row>
     <row r="26" ht="24" customHeight="1">
@@ -2598,47 +2592,47 @@
       </c>
     </row>
     <row r="32" ht="30" customHeight="1">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="90"/>
     </row>
     <row r="34">
       <c r="B34" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C34" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="99" t="s">
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="98" t="s">
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="100"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="99"/>
       <c r="P34" s="30"/>
     </row>
     <row r="35" ht="24" customHeight="1">
@@ -2922,48 +2916,48 @@
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="94"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="90"/>
     </row>
     <row r="43">
       <c r="B43" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="99" t="s">
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="98" t="s">
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="100"/>
+      <c r="M43" s="98"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="98"/>
+      <c r="P43" s="99"/>
       <c r="Q43" s="30"/>
     </row>
     <row r="44" ht="24" customHeight="1">
@@ -3265,49 +3259,49 @@
       </c>
     </row>
     <row r="50" ht="30" customHeight="1">
-      <c r="B50" s="90" t="s">
+      <c r="B50" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="93"/>
-      <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="91"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="92"/>
+      <c r="N50" s="92"/>
+      <c r="O50" s="92"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="90"/>
     </row>
     <row r="52">
       <c r="B52" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="98" t="s">
+      <c r="C52" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="99" t="s">
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="98" t="s">
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="M52" s="99"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="99"/>
-      <c r="P52" s="100"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
+      <c r="P52" s="99"/>
       <c r="Q52" s="30"/>
     </row>
     <row r="53" ht="24" customHeight="1">
@@ -3609,48 +3603,48 @@
       </c>
     </row>
     <row r="59" ht="30" customHeight="1">
-      <c r="B59" s="90" t="s">
+      <c r="B59" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="92"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="93"/>
-      <c r="G59" s="93"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="93"/>
-      <c r="J59" s="93"/>
-      <c r="K59" s="94"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="93"/>
-      <c r="N59" s="93"/>
-      <c r="O59" s="93"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="91"/>
+      <c r="M59" s="92"/>
+      <c r="N59" s="92"/>
+      <c r="O59" s="92"/>
+      <c r="P59" s="93"/>
+      <c r="Q59" s="90"/>
     </row>
     <row r="61">
       <c r="B61" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="98" t="s">
+      <c r="C61" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="99" t="s">
+      <c r="D61" s="98"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="98" t="s">
+      <c r="H61" s="98"/>
+      <c r="I61" s="98"/>
+      <c r="J61" s="99"/>
+      <c r="K61" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="L61" s="99"/>
-      <c r="M61" s="99"/>
-      <c r="N61" s="99"/>
-      <c r="O61" s="100"/>
+      <c r="L61" s="98"/>
+      <c r="M61" s="98"/>
+      <c r="N61" s="98"/>
+      <c r="O61" s="99"/>
       <c r="P61" s="30"/>
     </row>
     <row r="62" ht="24" customHeight="1">
@@ -3934,47 +3928,47 @@
       </c>
     </row>
     <row r="68" ht="30" customHeight="1">
-      <c r="B68" s="90" t="s">
+      <c r="B68" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="93"/>
-      <c r="M68" s="93"/>
-      <c r="N68" s="93"/>
-      <c r="O68" s="94"/>
-      <c r="P68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="92"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="91"/>
+      <c r="L68" s="92"/>
+      <c r="M68" s="92"/>
+      <c r="N68" s="92"/>
+      <c r="O68" s="93"/>
+      <c r="P68" s="90"/>
     </row>
     <row r="70">
       <c r="B70" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="98" t="s">
+      <c r="C70" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="99" t="s">
+      <c r="D70" s="98"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="H70" s="99"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="98" t="s">
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="100"/>
+      <c r="L70" s="98"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="98"/>
+      <c r="O70" s="99"/>
       <c r="P70" s="30"/>
     </row>
     <row r="71" ht="24" customHeight="1">
@@ -4258,23 +4252,23 @@
       </c>
     </row>
     <row r="77" ht="30" customHeight="1">
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="93"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="93"/>
-      <c r="M77" s="93"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="94"/>
-      <c r="P77" s="91"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="92"/>
+      <c r="N77" s="92"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="90"/>
     </row>
     <row r="80" ht="24" customHeight="1">
       <c r="P80" s="60"/>
@@ -4449,24 +4443,24 @@
       <c r="D7" s="7"/>
       <c r="E7" s="21"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="102"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="102"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="25"/>
@@ -4710,24 +4704,24 @@
       <c r="D13" s="7"/>
       <c r="E13" s="21"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="98" t="s">
+      <c r="N13" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="99"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="39" t="s">
@@ -4967,24 +4961,24 @@
       <c r="D19" s="7"/>
       <c r="E19" s="21"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="98" t="s">
+      <c r="N19" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="99"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="39" t="s">
@@ -5254,25 +5248,25 @@
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
     </row>
     <row r="26" ht="8.1" customHeight="1">
       <c r="B26" s="2"/>
@@ -5298,25 +5292,25 @@
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
     </row>
     <row r="28" ht="8.1" customHeight="1">
       <c r="B28" s="2"/>
@@ -5342,25 +5336,25 @@
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
     </row>
     <row r="30" ht="8.1" customHeight="1">
       <c r="B30" s="2"/>
@@ -5386,25 +5380,25 @@
       <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="103" t="s">
+      <c r="D31" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="2"/>
@@ -5430,25 +5424,25 @@
       <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="103" t="s">
+      <c r="D33" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="2"/>
@@ -5474,25 +5468,25 @@
       <c r="B35" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="97" t="s">
+      <c r="D35" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
-      <c r="S35" s="97"/>
-      <c r="T35" s="97"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5635,24 +5629,24 @@
       <c r="D7" s="7"/>
       <c r="E7" s="21"/>
       <c r="F7" s="26"/>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="102"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="101"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="102"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="25"/>
@@ -5894,24 +5888,24 @@
       <c r="D13" s="7"/>
       <c r="E13" s="21"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="98" t="s">
+      <c r="N13" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="100"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="99"/>
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="B14" s="39" t="s">
@@ -6149,24 +6143,24 @@
       <c r="D19" s="7"/>
       <c r="E19" s="21"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="98" t="s">
+      <c r="G19" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="99"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="98" t="s">
+      <c r="N19" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="100"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="99"/>
     </row>
     <row r="20" ht="24" customHeight="1">
       <c r="B20" s="39" t="s">
@@ -6404,24 +6398,24 @@
       <c r="D25" s="7"/>
       <c r="E25" s="21"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="98" t="s">
+      <c r="G25" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="99"/>
       <c r="M25" s="31"/>
-      <c r="N25" s="98" t="s">
+      <c r="N25" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="99"/>
-      <c r="T25" s="100"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="99"/>
     </row>
     <row r="26" ht="24" customHeight="1">
       <c r="B26" s="39" t="s">
@@ -6659,26 +6653,26 @@
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="95" t="s">
+      <c r="C31" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
     </row>
     <row r="32" ht="8.1" customHeight="1">
       <c r="B32" s="2"/>
@@ -6705,26 +6699,26 @@
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
     </row>
     <row r="34" ht="8.1" customHeight="1">
       <c r="B34" s="2"/>
@@ -6751,26 +6745,26 @@
       <c r="B35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C35" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
     </row>
     <row r="36" ht="8.1" customHeight="1">
       <c r="B36" s="2"/>
@@ -6797,26 +6791,26 @@
       <c r="B37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
+      <c r="N37" s="94"/>
+      <c r="O37" s="94"/>
+      <c r="P37" s="94"/>
+      <c r="Q37" s="94"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
     </row>
     <row r="38" ht="8.1" customHeight="1">
       <c r="B38" s="2"/>
@@ -6843,26 +6837,26 @@
       <c r="B39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
+      <c r="K39" s="94"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
     </row>
     <row r="40" ht="8.1" customHeight="1">
       <c r="B40" s="2"/>
@@ -6889,26 +6883,26 @@
       <c r="B41" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="96" t="s">
+      <c r="C41" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="95"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -7003,35 +6997,35 @@
       </c>
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95" t="s">
+      <c r="D5" s="94"/>
+      <c r="E5" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95" t="s">
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95" t="s">
+      <c r="I5" s="94"/>
+      <c r="J5" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95" t="s">
+      <c r="K5" s="94"/>
+      <c r="L5" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="M5" s="95"/>
+      <c r="M5" s="94"/>
       <c r="N5" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
       <c r="T5" s="3" t="s">
         <v>19</v>
       </c>
@@ -7059,23 +7053,23 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="21"/>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="98" t="s">
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="100"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="99"/>
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="80" t="s">
@@ -7148,52 +7142,52 @@
       <c r="D9" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="83">
-        <v>0</v>
-      </c>
-      <c r="F9" s="84">
-        <v>0</v>
-      </c>
-      <c r="G9" s="85">
+      <c r="E9" s="82">
+        <v>0</v>
+      </c>
+      <c r="F9" s="83">
+        <v>0</v>
+      </c>
+      <c r="G9" s="84">
         <v>12000</v>
       </c>
-      <c r="H9" s="86">
-        <v>0</v>
-      </c>
-      <c r="I9" s="87">
+      <c r="H9" s="85">
+        <v>0</v>
+      </c>
+      <c r="I9" s="86">
         <v>4.5411580820137392</v>
       </c>
-      <c r="J9" s="83">
-        <v>0</v>
-      </c>
-      <c r="K9" s="83">
+      <c r="J9" s="82">
+        <v>0</v>
+      </c>
+      <c r="K9" s="82">
         <v>4858.3829504118494</v>
       </c>
-      <c r="L9" s="88">
+      <c r="L9" s="87">
         <v>2.469957622213117</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="84">
         <v>2642.4977468916245</v>
       </c>
-      <c r="N9" s="89">
+      <c r="N9" s="88">
         <v>1.0291490092554654</v>
       </c>
-      <c r="O9" s="86">
-        <v>0</v>
-      </c>
-      <c r="P9" s="87">
+      <c r="O9" s="85">
+        <v>0</v>
+      </c>
+      <c r="P9" s="86">
         <v>4.570484429483888</v>
       </c>
-      <c r="Q9" s="83">
-        <v>0</v>
-      </c>
-      <c r="R9" s="83">
+      <c r="Q9" s="82">
+        <v>0</v>
+      </c>
+      <c r="R9" s="82">
         <v>5000</v>
       </c>
-      <c r="S9" s="88">
+      <c r="S9" s="87">
         <v>2.4</v>
       </c>
-      <c r="T9" s="85">
+      <c r="T9" s="84">
         <v>2625.5422559999984</v>
       </c>
     </row>
@@ -7260,23 +7254,23 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="98" t="s">
+      <c r="H12" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="98" t="s">
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="100"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="99"/>
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="80" t="s">
@@ -7349,52 +7343,52 @@
       <c r="D14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="83">
-        <v>0</v>
-      </c>
-      <c r="F14" s="84">
-        <v>0</v>
-      </c>
-      <c r="G14" s="85">
+      <c r="E14" s="82">
+        <v>0</v>
+      </c>
+      <c r="F14" s="83">
+        <v>0</v>
+      </c>
+      <c r="G14" s="84">
         <v>12000</v>
       </c>
-      <c r="H14" s="86">
-        <v>0</v>
-      </c>
-      <c r="I14" s="87">
+      <c r="H14" s="85">
+        <v>0</v>
+      </c>
+      <c r="I14" s="86">
         <v>4.5411580820137392</v>
       </c>
-      <c r="J14" s="83">
-        <v>0</v>
-      </c>
-      <c r="K14" s="83">
+      <c r="J14" s="82">
+        <v>0</v>
+      </c>
+      <c r="K14" s="82">
         <v>4858.3829504118494</v>
       </c>
-      <c r="L14" s="88">
+      <c r="L14" s="87">
         <v>2.469957622213117</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M14" s="84">
         <v>2642.4977468916245</v>
       </c>
-      <c r="N14" s="89">
+      <c r="N14" s="88">
         <v>1.0291490092554654</v>
       </c>
-      <c r="O14" s="86">
-        <v>0</v>
-      </c>
-      <c r="P14" s="87">
+      <c r="O14" s="85">
+        <v>0</v>
+      </c>
+      <c r="P14" s="86">
         <v>4.570484429483888</v>
       </c>
-      <c r="Q14" s="83">
-        <v>0</v>
-      </c>
-      <c r="R14" s="83">
+      <c r="Q14" s="82">
+        <v>0</v>
+      </c>
+      <c r="R14" s="82">
         <v>5000</v>
       </c>
-      <c r="S14" s="88">
+      <c r="S14" s="87">
         <v>2.4</v>
       </c>
-      <c r="T14" s="85">
+      <c r="T14" s="84">
         <v>2625.5422559999984</v>
       </c>
     </row>
@@ -7461,23 +7455,23 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="98" t="s">
+      <c r="H17" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="98" t="s">
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="99"/>
     </row>
     <row r="18" ht="24" customHeight="1">
       <c r="A18" s="80" t="s">
@@ -7550,52 +7544,52 @@
       <c r="D19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="83">
-        <v>0</v>
-      </c>
-      <c r="F19" s="84">
-        <v>0</v>
-      </c>
-      <c r="G19" s="85">
+      <c r="E19" s="82">
+        <v>0</v>
+      </c>
+      <c r="F19" s="83">
+        <v>0</v>
+      </c>
+      <c r="G19" s="84">
         <v>12000</v>
       </c>
-      <c r="H19" s="86">
-        <v>0</v>
-      </c>
-      <c r="I19" s="87">
+      <c r="H19" s="85">
+        <v>0</v>
+      </c>
+      <c r="I19" s="86">
         <v>4.0285099091308858</v>
       </c>
-      <c r="J19" s="83">
-        <v>0</v>
-      </c>
-      <c r="K19" s="83">
+      <c r="J19" s="82">
+        <v>0</v>
+      </c>
+      <c r="K19" s="82">
         <v>4858.3829504118485</v>
       </c>
-      <c r="L19" s="88">
+      <c r="L19" s="87">
         <v>2.469957622213117</v>
       </c>
-      <c r="M19" s="85">
+      <c r="M19" s="84">
         <v>2978.7688923890169</v>
       </c>
-      <c r="N19" s="89">
+      <c r="N19" s="88">
         <v>1.0291490092554654</v>
       </c>
-      <c r="O19" s="86">
-        <v>0</v>
-      </c>
-      <c r="P19" s="87">
+      <c r="O19" s="85">
+        <v>0</v>
+      </c>
+      <c r="P19" s="86">
         <v>4.5704844294838871</v>
       </c>
-      <c r="Q19" s="83">
-        <v>0</v>
-      </c>
-      <c r="R19" s="83">
+      <c r="Q19" s="82">
+        <v>0</v>
+      </c>
+      <c r="R19" s="82">
         <v>4999.9999999999991</v>
       </c>
-      <c r="S19" s="88">
+      <c r="S19" s="87">
         <v>2.4</v>
       </c>
-      <c r="T19" s="85">
+      <c r="T19" s="84">
         <v>2625.5422559999984</v>
       </c>
     </row>
@@ -7662,23 +7656,23 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="21"/>
-      <c r="H22" s="98" t="s">
+      <c r="H22" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="98" t="s">
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="99"/>
     </row>
     <row r="23" ht="24" customHeight="1">
       <c r="A23" s="80" t="s">
@@ -7751,52 +7745,52 @@
       <c r="D24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="83">
-        <v>0</v>
-      </c>
-      <c r="F24" s="84">
-        <v>0</v>
-      </c>
-      <c r="G24" s="85">
+      <c r="E24" s="82">
+        <v>0</v>
+      </c>
+      <c r="F24" s="83">
+        <v>0</v>
+      </c>
+      <c r="G24" s="84">
         <v>12000</v>
       </c>
-      <c r="H24" s="86">
-        <v>0</v>
-      </c>
-      <c r="I24" s="87">
+      <c r="H24" s="85">
+        <v>0</v>
+      </c>
+      <c r="I24" s="86">
         <v>4.5411580820137392</v>
       </c>
-      <c r="J24" s="83">
-        <v>0</v>
-      </c>
-      <c r="K24" s="83">
+      <c r="J24" s="82">
+        <v>0</v>
+      </c>
+      <c r="K24" s="82">
         <v>4858.3829504118494</v>
       </c>
-      <c r="L24" s="88">
+      <c r="L24" s="87">
         <v>2.469957622213117</v>
       </c>
-      <c r="M24" s="85">
+      <c r="M24" s="84">
         <v>2642.4977468916245</v>
       </c>
-      <c r="N24" s="89">
+      <c r="N24" s="88">
         <v>1.0291490092554654</v>
       </c>
-      <c r="O24" s="86">
-        <v>0</v>
-      </c>
-      <c r="P24" s="87">
+      <c r="O24" s="85">
+        <v>0</v>
+      </c>
+      <c r="P24" s="86">
         <v>4.570484429483888</v>
       </c>
-      <c r="Q24" s="83">
-        <v>0</v>
-      </c>
-      <c r="R24" s="83">
+      <c r="Q24" s="82">
+        <v>0</v>
+      </c>
+      <c r="R24" s="82">
         <v>5000</v>
       </c>
-      <c r="S24" s="88">
+      <c r="S24" s="87">
         <v>2.4</v>
       </c>
-      <c r="T24" s="85">
+      <c r="T24" s="84">
         <v>2625.5422559999984</v>
       </c>
     </row>
@@ -7863,23 +7857,23 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="21"/>
-      <c r="H27" s="98" t="s">
+      <c r="H27" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="98" t="s">
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="100"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="99"/>
     </row>
     <row r="28" ht="24" customHeight="1">
       <c r="A28" s="80" t="s">
@@ -7952,52 +7946,52 @@
       <c r="D29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="83">
-        <v>0</v>
-      </c>
-      <c r="F29" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="85">
+      <c r="E29" s="82">
+        <v>0</v>
+      </c>
+      <c r="F29" s="83">
+        <v>0</v>
+      </c>
+      <c r="G29" s="84">
         <v>48000</v>
       </c>
-      <c r="H29" s="86">
-        <v>0</v>
-      </c>
-      <c r="I29" s="87">
+      <c r="H29" s="85">
+        <v>0</v>
+      </c>
+      <c r="I29" s="86">
         <v>17.6519841551721</v>
       </c>
-      <c r="J29" s="83">
-        <v>0</v>
-      </c>
-      <c r="K29" s="83">
+      <c r="J29" s="82">
+        <v>0</v>
+      </c>
+      <c r="K29" s="82">
         <v>19433.531801647398</v>
       </c>
-      <c r="L29" s="88">
+      <c r="L29" s="87">
         <v>2.469957622213117</v>
       </c>
-      <c r="M29" s="85">
+      <c r="M29" s="84">
         <v>2719.2410540395717</v>
       </c>
-      <c r="N29" s="89">
+      <c r="N29" s="88">
         <v>1.0291490092554654</v>
       </c>
-      <c r="O29" s="86">
-        <v>0</v>
-      </c>
-      <c r="P29" s="87">
+      <c r="O29" s="85">
+        <v>0</v>
+      </c>
+      <c r="P29" s="86">
         <v>18.281937717935552</v>
       </c>
-      <c r="Q29" s="83">
-        <v>0</v>
-      </c>
-      <c r="R29" s="83">
+      <c r="Q29" s="82">
+        <v>0</v>
+      </c>
+      <c r="R29" s="82">
         <v>20000</v>
       </c>
-      <c r="S29" s="88">
+      <c r="S29" s="87">
         <v>2.4</v>
       </c>
-      <c r="T29" s="85">
+      <c r="T29" s="84">
         <v>2625.5422559999929</v>
       </c>
     </row>
@@ -8056,194 +8050,57 @@
         <v>2625.5422559999929</v>
       </c>
     </row>
-    <row r="32" ht="48" customHeight="1">
+    <row r="31" ht="8.1" customHeight="1">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+    </row>
+    <row r="32" ht="147" customHeight="1">
       <c r="C32" s="55" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D32" s="55"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="104" t="s">
+      <c r="F32" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-    </row>
-    <row r="33" ht="8.1" customHeight="1">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-    </row>
-    <row r="34" ht="48" customHeight="1" s="81" customFormat="1">
-      <c r="C34" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="55"/>
-      <c r="F34" s="104" t="s">
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+    </row>
+    <row r="34">
+      <c r="F34" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-    </row>
-    <row r="35" ht="8.1" customHeight="1">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-    </row>
-    <row r="36" ht="48" customHeight="1">
-      <c r="C36" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="104"/>
-    </row>
-    <row r="37" ht="8.1" customHeight="1">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-    </row>
-    <row r="38" ht="48.95" customHeight="1" s="81" customFormat="1">
-      <c r="C38" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="55"/>
-      <c r="F38" s="104"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="104"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="104"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-      <c r="S38" s="104"/>
-      <c r="T38" s="104"/>
-    </row>
-    <row r="39" ht="8.1" customHeight="1">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-    </row>
-    <row r="40" ht="147" customHeight="1">
-      <c r="C40" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="55"/>
-      <c r="F40" s="96" t="s">
+    </row>
+    <row r="40">
+      <c r="F40" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -8251,16 +8108,12 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F34:T34"/>
-    <mergeCell ref="F36:T36"/>
-    <mergeCell ref="F38:T38"/>
-    <mergeCell ref="F40:T40"/>
+    <mergeCell ref="F32:T32"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
-    <mergeCell ref="F32:T32"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:T12"/>
     <mergeCell ref="H17:M17"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -271,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/27/20</t>
+    <t>Created 02/28/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1538,7 +1538,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/27/20</v>
+        <v>Created 02/28/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -271,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/28/20</t>
+    <t>Created 02/29/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1538,7 +1538,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/28/20</v>
+        <v>Created 02/29/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -271,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 02/29/20</t>
+    <t>Created 03/02/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1538,7 +1538,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 02/29/20</v>
+        <v>Created 03/02/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -271,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/02/20</t>
+    <t>Created 03/03/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1538,7 +1538,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/02/20</v>
+        <v>Created 03/03/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -271,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/03/20</t>
+    <t>Created 03/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1538,7 +1538,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/03/20</v>
+        <v>Created 03/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -271,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/05/20</t>
+    <t>Created 03/12/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -1538,7 +1538,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/05/20</v>
+        <v>Created 03/12/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -7500,13 +7500,13 @@
         <v>0</v>
       </c>
       <c r="I19" s="87">
-        <v>4.0285099091308858</v>
+        <v>4.0285099091308876</v>
       </c>
       <c r="J19" s="83">
         <v>0</v>
       </c>
       <c r="K19" s="83">
-        <v>4858.3829504118485</v>
+        <v>4858.38295041185</v>
       </c>
       <c r="L19" s="88">
         <v>2.469957622213117</v>
@@ -7521,13 +7521,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="87">
-        <v>4.5704844294838871</v>
+        <v>4.5704844294838889</v>
       </c>
       <c r="Q19" s="83">
         <v>0</v>
       </c>
       <c r="R19" s="83">
-        <v>4999.9999999999991</v>
+        <v>5000.0000000000009</v>
       </c>
       <c r="S19" s="88">
         <v>2.4</v>
@@ -7555,13 +7555,13 @@
         <v>38</v>
       </c>
       <c r="I20" s="79">
-        <v>4.0285099091308858</v>
+        <v>4.0285099091308876</v>
       </c>
       <c r="J20" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K20" s="51">
-        <v>4858.3829504118485</v>
+        <v>4858.38295041185</v>
       </c>
       <c r="L20" s="47">
         <v>2.469957622213117</v>
@@ -7576,13 +7576,13 @@
         <v>38</v>
       </c>
       <c r="P20" s="79">
-        <v>4.5704844294838871</v>
+        <v>4.5704844294838889</v>
       </c>
       <c r="Q20" s="51" t="s">
         <v>38</v>
       </c>
       <c r="R20" s="51">
-        <v>4999.9999999999991</v>
+        <v>5000.0000000000009</v>
       </c>
       <c r="S20" s="47">
         <v>2.4</v>
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="87">
-        <v>17.6519841551721</v>
+        <v>17.651984155172105</v>
       </c>
       <c r="J29" s="83">
         <v>0</v>
@@ -7957,7 +7957,7 @@
         <v>38</v>
       </c>
       <c r="I30" s="79">
-        <v>17.6519841551721</v>
+        <v>17.651984155172105</v>
       </c>
       <c r="J30" s="51" t="s">
         <v>38</v>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\Maestro\UI\BroadcastComposerWeb\App_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4E787E8-1200-41A4-A260-D43CD30914D5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E91EEE2-103A-4DE2-B420-4E5455B83C81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33600" yWindow="465" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -271,7 +271,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 03/12/20</t>
+    <t>Created 06/17/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -631,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
@@ -942,6 +942,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1538,7 +1541,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 03/12/20</v>
+        <v>Created 06/17/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1582,7 +1585,7 @@
       <c r="P6" s="60"/>
     </row>
     <row r="7">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="105" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="98" t="s">
@@ -1656,46 +1659,46 @@
         <v>59</v>
       </c>
       <c r="C9" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0196</v>
       </c>
       <c r="D9" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="E9" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="F9" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="G9" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="H9" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="I9" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="J9" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="K9" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="L9" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="M9" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="N9" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="O9" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="P9" s="69">
-        <v>0.25000000000000022</v>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -1750,46 +1753,46 @@
         <v>28</v>
       </c>
       <c r="C11" s="66">
-        <v>384.61538461538464</v>
+        <v>392</v>
       </c>
       <c r="D11" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="E11" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="F11" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="G11" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="H11" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="I11" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="J11" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="K11" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="L11" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="M11" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="N11" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="O11" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="P11" s="58">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -1797,46 +1800,46 @@
         <v>30</v>
       </c>
       <c r="C12" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="D12" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="E12" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="F12" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="G12" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="H12" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="I12" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="J12" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="K12" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="L12" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="M12" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="N12" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="O12" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="P12" s="74">
-        <v>2.3999999999999995</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
@@ -1844,46 +1847,46 @@
         <v>60</v>
       </c>
       <c r="C13" s="70">
-        <v>923.07692307692275</v>
+        <v>940.8</v>
       </c>
       <c r="D13" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="E13" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="F13" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="G13" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="H13" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="I13" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="J13" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="K13" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="L13" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="M13" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="N13" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="O13" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="P13" s="72">
-        <v>11999.999999999996</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
@@ -1906,7 +1909,7 @@
       <c r="P14" s="91"/>
     </row>
     <row r="16">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="105" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="98" t="s">
@@ -1980,46 +1983,46 @@
         <v>59</v>
       </c>
       <c r="C18" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0196</v>
       </c>
       <c r="D18" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="E18" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="F18" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="G18" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="H18" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="I18" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="J18" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="K18" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="L18" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="M18" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="N18" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="O18" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="P18" s="69">
-        <v>0.25000000000000022</v>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -2074,46 +2077,46 @@
         <v>28</v>
       </c>
       <c r="C20" s="66">
-        <v>384.61538461538464</v>
+        <v>392</v>
       </c>
       <c r="D20" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="E20" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="F20" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="G20" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="H20" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="I20" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="J20" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="K20" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="L20" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="M20" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="N20" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="O20" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="P20" s="58">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="21" ht="24" customHeight="1">
@@ -2121,46 +2124,46 @@
         <v>30</v>
       </c>
       <c r="C21" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="D21" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="E21" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="F21" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="G21" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="H21" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="I21" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="J21" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="K21" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="L21" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="M21" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="N21" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="O21" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="P21" s="74">
-        <v>2.3999999999999995</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
@@ -2168,46 +2171,46 @@
         <v>60</v>
       </c>
       <c r="C22" s="70">
-        <v>923.07692307692275</v>
+        <v>940.8</v>
       </c>
       <c r="D22" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="E22" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="F22" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="G22" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="H22" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="I22" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="J22" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="K22" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="L22" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="M22" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="N22" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="O22" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="P22" s="72">
-        <v>11999.999999999996</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
@@ -2230,7 +2233,7 @@
       <c r="P23" s="91"/>
     </row>
     <row r="25">
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="105" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="98" t="s">
@@ -2304,46 +2307,46 @@
         <v>59</v>
       </c>
       <c r="C27" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0196</v>
       </c>
       <c r="D27" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="E27" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="F27" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="G27" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="H27" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="I27" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="J27" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="K27" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="L27" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="M27" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="N27" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="O27" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="P27" s="69">
-        <v>0.25000000000000022</v>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1">
@@ -2398,46 +2401,46 @@
         <v>28</v>
       </c>
       <c r="C29" s="66">
-        <v>384.61538461538464</v>
+        <v>392</v>
       </c>
       <c r="D29" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="E29" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="F29" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="G29" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="H29" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="I29" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="J29" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="K29" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="L29" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="M29" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="N29" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="O29" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="P29" s="58">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -2445,46 +2448,46 @@
         <v>30</v>
       </c>
       <c r="C30" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="D30" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="E30" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="F30" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="G30" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="H30" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="I30" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="J30" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="K30" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="L30" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="M30" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="N30" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="O30" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="P30" s="74">
-        <v>2.3999999999999995</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="31" ht="24" customHeight="1">
@@ -2492,46 +2495,46 @@
         <v>60</v>
       </c>
       <c r="C31" s="70">
-        <v>923.07692307692275</v>
+        <v>940.8</v>
       </c>
       <c r="D31" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="E31" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="F31" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="G31" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="H31" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="I31" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="J31" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="K31" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="L31" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="M31" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="N31" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="O31" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="P31" s="72">
-        <v>11999.999999999996</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1">
@@ -2554,7 +2557,7 @@
       <c r="P32" s="91"/>
     </row>
     <row r="34">
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="105" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="98" t="s">
@@ -2628,46 +2631,46 @@
         <v>59</v>
       </c>
       <c r="C36" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0196</v>
       </c>
       <c r="D36" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="E36" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="F36" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="G36" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="H36" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="I36" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="J36" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="K36" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="L36" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="M36" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="N36" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="O36" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="P36" s="69">
-        <v>0.25000000000000022</v>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
@@ -2722,46 +2725,46 @@
         <v>28</v>
       </c>
       <c r="C38" s="66">
-        <v>384.61538461538464</v>
+        <v>392</v>
       </c>
       <c r="D38" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="E38" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="F38" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="G38" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="H38" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="I38" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="J38" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="K38" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="L38" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="M38" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="N38" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="O38" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="P38" s="58">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
@@ -2769,46 +2772,46 @@
         <v>30</v>
       </c>
       <c r="C39" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="D39" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="E39" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="F39" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="G39" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="H39" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="I39" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="J39" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="K39" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="L39" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="M39" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="N39" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="O39" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="P39" s="74">
-        <v>2.3999999999999995</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="40" ht="24" customHeight="1">
@@ -2816,46 +2819,46 @@
         <v>60</v>
       </c>
       <c r="C40" s="70">
-        <v>923.07692307692275</v>
+        <v>940.8</v>
       </c>
       <c r="D40" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="E40" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="F40" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="G40" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="H40" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="I40" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="J40" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="K40" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="L40" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="M40" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="N40" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="O40" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="P40" s="72">
-        <v>11999.999999999996</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
@@ -2878,7 +2881,7 @@
       <c r="P41" s="91"/>
     </row>
     <row r="43">
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="105" t="s">
         <v>68</v>
       </c>
       <c r="C43" s="98" t="s">
@@ -2956,49 +2959,49 @@
         <v>59</v>
       </c>
       <c r="C45" s="63">
-        <v>0.017857142857142873</v>
+        <v>0</v>
       </c>
       <c r="D45" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.023</v>
       </c>
       <c r="E45" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="F45" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="G45" s="65">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="H45" s="63">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="I45" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="J45" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="K45" s="65">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="L45" s="63">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="M45" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="N45" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="O45" s="64">
-        <v>0.017857142857142873</v>
+        <v>0</v>
       </c>
       <c r="P45" s="65">
-        <v>0.017857142857142873</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="69">
-        <v>0.25000000000000022</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" ht="24" customHeight="1">
@@ -3056,49 +3059,49 @@
         <v>28</v>
       </c>
       <c r="C47" s="66">
-        <v>357.14285714285722</v>
+        <v>0</v>
       </c>
       <c r="D47" s="36">
-        <v>357.14285714285722</v>
+        <v>460</v>
       </c>
       <c r="E47" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="F47" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="G47" s="58">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="H47" s="66">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="I47" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="J47" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="K47" s="58">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="L47" s="66">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="M47" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="N47" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="O47" s="36">
-        <v>357.14285714285722</v>
+        <v>0</v>
       </c>
       <c r="P47" s="58">
-        <v>357.14285714285722</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="58">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -3106,7 +3109,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="73">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D48" s="38">
         <v>2.4</v>
@@ -3142,13 +3145,13 @@
         <v>2.4</v>
       </c>
       <c r="O48" s="38">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="P48" s="74">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="74">
-        <v>2.399999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="49" ht="24" customHeight="1">
@@ -3156,49 +3159,49 @@
         <v>60</v>
       </c>
       <c r="C49" s="70">
-        <v>857.14285714285677</v>
+        <v>0</v>
       </c>
       <c r="D49" s="71">
-        <v>857.14285714285677</v>
+        <v>1104</v>
       </c>
       <c r="E49" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="F49" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="G49" s="72">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="H49" s="70">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="I49" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="J49" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="K49" s="72">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="L49" s="70">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="M49" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="N49" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="O49" s="71">
-        <v>857.14285714285677</v>
+        <v>0</v>
       </c>
       <c r="P49" s="72">
-        <v>857.14285714285677</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="72">
-        <v>11999.999999999995</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1">
@@ -3222,7 +3225,7 @@
       <c r="Q50" s="91"/>
     </row>
     <row r="52">
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="105" t="s">
         <v>72</v>
       </c>
       <c r="C52" s="98" t="s">
@@ -3300,49 +3303,49 @@
         <v>59</v>
       </c>
       <c r="C54" s="63">
-        <v>0.017857142857142873</v>
+        <v>0</v>
       </c>
       <c r="D54" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.023</v>
       </c>
       <c r="E54" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="F54" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="G54" s="65">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="H54" s="63">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="I54" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="J54" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="K54" s="65">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="L54" s="63">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="M54" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="N54" s="64">
-        <v>0.017857142857142873</v>
+        <v>0.0227</v>
       </c>
       <c r="O54" s="64">
-        <v>0.017857142857142873</v>
+        <v>0</v>
       </c>
       <c r="P54" s="65">
-        <v>0.017857142857142873</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="69">
-        <v>0.25000000000000022</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="55" ht="24" customHeight="1">
@@ -3400,49 +3403,49 @@
         <v>28</v>
       </c>
       <c r="C56" s="66">
-        <v>357.14285714285722</v>
+        <v>0</v>
       </c>
       <c r="D56" s="36">
-        <v>357.14285714285722</v>
+        <v>460</v>
       </c>
       <c r="E56" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="F56" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="G56" s="58">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="H56" s="66">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="I56" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="J56" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="K56" s="58">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="L56" s="66">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="M56" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="N56" s="36">
-        <v>357.14285714285722</v>
+        <v>454</v>
       </c>
       <c r="O56" s="36">
-        <v>357.14285714285722</v>
+        <v>0</v>
       </c>
       <c r="P56" s="58">
-        <v>357.14285714285722</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="58">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
@@ -3450,7 +3453,7 @@
         <v>30</v>
       </c>
       <c r="C57" s="73">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D57" s="38">
         <v>2.4</v>
@@ -3486,13 +3489,13 @@
         <v>2.4</v>
       </c>
       <c r="O57" s="38">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="P57" s="74">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="74">
-        <v>2.399999999999999</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="58" ht="24" customHeight="1">
@@ -3500,49 +3503,49 @@
         <v>60</v>
       </c>
       <c r="C58" s="70">
-        <v>857.14285714285677</v>
+        <v>0</v>
       </c>
       <c r="D58" s="71">
-        <v>857.14285714285677</v>
+        <v>1104</v>
       </c>
       <c r="E58" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="F58" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="G58" s="72">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="H58" s="70">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="I58" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="J58" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="K58" s="72">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="L58" s="70">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="M58" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="N58" s="71">
-        <v>857.14285714285677</v>
+        <v>1089.6</v>
       </c>
       <c r="O58" s="71">
-        <v>857.14285714285677</v>
+        <v>0</v>
       </c>
       <c r="P58" s="72">
-        <v>857.14285714285677</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="72">
-        <v>11999.999999999995</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1">
@@ -3566,7 +3569,7 @@
       <c r="Q59" s="91"/>
     </row>
     <row r="61">
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="105" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="98" t="s">
@@ -3640,46 +3643,46 @@
         <v>59</v>
       </c>
       <c r="C63" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0196</v>
       </c>
       <c r="D63" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="E63" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="F63" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="G63" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="H63" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="I63" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="J63" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="K63" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="L63" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="M63" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="N63" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="O63" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="P63" s="69">
-        <v>0.25000000000000022</v>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="64" ht="24" customHeight="1">
@@ -3734,46 +3737,46 @@
         <v>28</v>
       </c>
       <c r="C65" s="66">
-        <v>384.61538461538464</v>
+        <v>392</v>
       </c>
       <c r="D65" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="E65" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="F65" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="G65" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="H65" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="I65" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="J65" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="K65" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="L65" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="M65" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="N65" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="O65" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="P65" s="58">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="66" ht="24" customHeight="1">
@@ -3781,46 +3784,46 @@
         <v>30</v>
       </c>
       <c r="C66" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="D66" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="E66" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="F66" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="G66" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="H66" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="I66" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="J66" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="K66" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="L66" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="M66" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="N66" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="O66" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="P66" s="74">
-        <v>2.3999999999999995</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="67" ht="24" customHeight="1">
@@ -3828,46 +3831,46 @@
         <v>60</v>
       </c>
       <c r="C67" s="70">
-        <v>923.07692307692275</v>
+        <v>940.8</v>
       </c>
       <c r="D67" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="E67" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="F67" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="G67" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="H67" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="I67" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="J67" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="K67" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="L67" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="M67" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="N67" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="O67" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="P67" s="72">
-        <v>11999.999999999996</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1">
@@ -3890,7 +3893,7 @@
       <c r="P68" s="91"/>
     </row>
     <row r="70">
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="105" t="s">
         <v>74</v>
       </c>
       <c r="C70" s="98" t="s">
@@ -3964,46 +3967,46 @@
         <v>59</v>
       </c>
       <c r="C72" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0196</v>
       </c>
       <c r="D72" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="E72" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="F72" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="G72" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="H72" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="I72" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="J72" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="K72" s="63">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="L72" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="M72" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="N72" s="64">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="O72" s="65">
-        <v>0.019230769230769246</v>
+        <v>0.0192</v>
       </c>
       <c r="P72" s="69">
-        <v>0.25000000000000022</v>
+        <v>0.24999999999999994</v>
       </c>
     </row>
     <row r="73" ht="24" customHeight="1">
@@ -4058,46 +4061,46 @@
         <v>28</v>
       </c>
       <c r="C74" s="66">
-        <v>384.61538461538464</v>
+        <v>392</v>
       </c>
       <c r="D74" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="E74" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="F74" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="G74" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="H74" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="I74" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="J74" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="K74" s="66">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="L74" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="M74" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="N74" s="36">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="O74" s="58">
-        <v>384.61538461538464</v>
+        <v>384</v>
       </c>
       <c r="P74" s="58">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
@@ -4105,46 +4108,46 @@
         <v>30</v>
       </c>
       <c r="C75" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="D75" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="E75" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="F75" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="G75" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="H75" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="I75" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="J75" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="K75" s="73">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="L75" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="M75" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="N75" s="38">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="O75" s="74">
-        <v>2.3999999999999968</v>
+        <v>2.4</v>
       </c>
       <c r="P75" s="74">
-        <v>2.3999999999999995</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="76" ht="24" customHeight="1">
@@ -4152,46 +4155,46 @@
         <v>60</v>
       </c>
       <c r="C76" s="70">
-        <v>923.07692307692275</v>
+        <v>940.8</v>
       </c>
       <c r="D76" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="E76" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="F76" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="G76" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="H76" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="I76" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="J76" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="K76" s="70">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="L76" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="M76" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="N76" s="71">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="O76" s="72">
-        <v>923.07692307692275</v>
+        <v>921.6</v>
       </c>
       <c r="P76" s="72">
-        <v>11999.999999999996</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1">
@@ -6849,11 +6852,6 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="C35:T35"/>
     <mergeCell ref="C37:T37"/>
     <mergeCell ref="C39:T39"/>
     <mergeCell ref="C41:T41"/>
@@ -6863,6 +6861,11 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="C31:T31"/>
     <mergeCell ref="C33:T33"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="C35:T35"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -7098,28 +7101,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="87">
-        <v>4.5411580820137392</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="J9" s="83">
         <v>0</v>
       </c>
       <c r="K9" s="83">
-        <v>4858.3829504118494</v>
+        <v>4858.382</v>
       </c>
       <c r="L9" s="88">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M9" s="85">
-        <v>2642.4977468916245</v>
+        <v>3000</v>
       </c>
       <c r="N9" s="89">
-        <v>1.0291490092554654</v>
+        <v>1.0291492105808067</v>
       </c>
       <c r="O9" s="86">
         <v>0</v>
       </c>
       <c r="P9" s="87">
-        <v>4.570484429483888</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="Q9" s="83">
         <v>0</v>
@@ -7131,7 +7134,7 @@
         <v>2.4</v>
       </c>
       <c r="T9" s="85">
-        <v>2625.5422559999984</v>
+        <v>3076.9230769230762</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1">
@@ -7153,19 +7156,19 @@
         <v>38</v>
       </c>
       <c r="I10" s="79">
-        <v>4.5411580820137392</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="51">
-        <v>4858.3829504118494</v>
+        <v>4858.382</v>
       </c>
       <c r="L10" s="47">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M10" s="43">
-        <v>2642.4977468916245</v>
+        <v>3000</v>
       </c>
       <c r="N10" s="45" t="s">
         <v>38</v>
@@ -7174,7 +7177,7 @@
         <v>38</v>
       </c>
       <c r="P10" s="79">
-        <v>4.570484429483888</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="Q10" s="51" t="s">
         <v>38</v>
@@ -7186,7 +7189,7 @@
         <v>2.4</v>
       </c>
       <c r="T10" s="43">
-        <v>2625.5422559999984</v>
+        <v>3076.9230769230762</v>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
@@ -7299,28 +7302,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="87">
-        <v>4.5411580820137392</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="J14" s="83">
         <v>0</v>
       </c>
       <c r="K14" s="83">
-        <v>4858.3829504118494</v>
+        <v>4858.382</v>
       </c>
       <c r="L14" s="88">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M14" s="85">
-        <v>2642.4977468916245</v>
+        <v>3000</v>
       </c>
       <c r="N14" s="89">
-        <v>1.0291490092554654</v>
+        <v>1.0291492105808067</v>
       </c>
       <c r="O14" s="86">
         <v>0</v>
       </c>
       <c r="P14" s="87">
-        <v>4.570484429483888</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="Q14" s="83">
         <v>0</v>
@@ -7332,7 +7335,7 @@
         <v>2.4</v>
       </c>
       <c r="T14" s="85">
-        <v>2625.5422559999984</v>
+        <v>3076.9230769230762</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
@@ -7354,19 +7357,19 @@
         <v>38</v>
       </c>
       <c r="I15" s="79">
-        <v>4.5411580820137392</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="J15" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="51">
-        <v>4858.3829504118494</v>
+        <v>4858.382</v>
       </c>
       <c r="L15" s="47">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M15" s="43">
-        <v>2642.4977468916245</v>
+        <v>3000</v>
       </c>
       <c r="N15" s="45" t="s">
         <v>38</v>
@@ -7375,7 +7378,7 @@
         <v>38</v>
       </c>
       <c r="P15" s="79">
-        <v>4.570484429483888</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="Q15" s="51" t="s">
         <v>38</v>
@@ -7387,7 +7390,7 @@
         <v>2.4</v>
       </c>
       <c r="T15" s="43">
-        <v>2625.5422559999984</v>
+        <v>3076.9230769230762</v>
       </c>
     </row>
     <row r="17" ht="24" customHeight="1">
@@ -7500,40 +7503,40 @@
         <v>0</v>
       </c>
       <c r="I19" s="87">
-        <v>4.0285099091308876</v>
+        <v>4</v>
       </c>
       <c r="J19" s="83">
         <v>0</v>
       </c>
       <c r="K19" s="83">
-        <v>4858.38295041185</v>
+        <v>4858.382</v>
       </c>
       <c r="L19" s="88">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M19" s="85">
-        <v>2978.7688923890169</v>
+        <v>3000</v>
       </c>
       <c r="N19" s="89">
-        <v>1.0291490092554654</v>
+        <v>1.0291492105808067</v>
       </c>
       <c r="O19" s="86">
         <v>0</v>
       </c>
       <c r="P19" s="87">
-        <v>4.5704844294838889</v>
+        <v>3.2999999999999994</v>
       </c>
       <c r="Q19" s="83">
         <v>0</v>
       </c>
       <c r="R19" s="83">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
       <c r="S19" s="88">
         <v>2.4</v>
       </c>
       <c r="T19" s="85">
-        <v>2625.5422559999984</v>
+        <v>3636.363636363636</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -7555,19 +7558,19 @@
         <v>38</v>
       </c>
       <c r="I20" s="79">
-        <v>4.0285099091308876</v>
+        <v>4</v>
       </c>
       <c r="J20" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K20" s="51">
-        <v>4858.38295041185</v>
+        <v>4858.382</v>
       </c>
       <c r="L20" s="47">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M20" s="43">
-        <v>2978.7688923890169</v>
+        <v>3000</v>
       </c>
       <c r="N20" s="45" t="s">
         <v>38</v>
@@ -7576,19 +7579,19 @@
         <v>38</v>
       </c>
       <c r="P20" s="79">
-        <v>4.5704844294838889</v>
+        <v>3.2999999999999994</v>
       </c>
       <c r="Q20" s="51" t="s">
         <v>38</v>
       </c>
       <c r="R20" s="51">
-        <v>5000.0000000000009</v>
+        <v>5000</v>
       </c>
       <c r="S20" s="47">
         <v>2.4</v>
       </c>
       <c r="T20" s="43">
-        <v>2625.5422559999984</v>
+        <v>3636.363636363636</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1">
@@ -7701,28 +7704,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="87">
-        <v>4.5411580820137392</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="J24" s="83">
         <v>0</v>
       </c>
       <c r="K24" s="83">
-        <v>4858.3829504118494</v>
+        <v>4858.382</v>
       </c>
       <c r="L24" s="88">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M24" s="85">
-        <v>2642.4977468916245</v>
+        <v>3000</v>
       </c>
       <c r="N24" s="89">
-        <v>1.0291490092554654</v>
+        <v>1.0291492105808067</v>
       </c>
       <c r="O24" s="86">
         <v>0</v>
       </c>
       <c r="P24" s="87">
-        <v>4.570484429483888</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="Q24" s="83">
         <v>0</v>
@@ -7734,7 +7737,7 @@
         <v>2.4</v>
       </c>
       <c r="T24" s="85">
-        <v>2625.5422559999984</v>
+        <v>3076.9230769230762</v>
       </c>
     </row>
     <row r="25" ht="24" customHeight="1">
@@ -7756,19 +7759,19 @@
         <v>38</v>
       </c>
       <c r="I25" s="79">
-        <v>4.5411580820137392</v>
+        <v>3.9999999999999991</v>
       </c>
       <c r="J25" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K25" s="51">
-        <v>4858.3829504118494</v>
+        <v>4858.382</v>
       </c>
       <c r="L25" s="47">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M25" s="43">
-        <v>2642.4977468916245</v>
+        <v>3000</v>
       </c>
       <c r="N25" s="45" t="s">
         <v>38</v>
@@ -7777,7 +7780,7 @@
         <v>38</v>
       </c>
       <c r="P25" s="79">
-        <v>4.570484429483888</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="Q25" s="51" t="s">
         <v>38</v>
@@ -7789,7 +7792,7 @@
         <v>2.4</v>
       </c>
       <c r="T25" s="43">
-        <v>2625.5422559999984</v>
+        <v>3076.9230769230762</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1">
@@ -7902,28 +7905,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="87">
-        <v>17.651984155172105</v>
+        <v>15.999999999999996</v>
       </c>
       <c r="J29" s="83">
         <v>0</v>
       </c>
       <c r="K29" s="83">
-        <v>19433.531801647398</v>
+        <v>19433.528</v>
       </c>
       <c r="L29" s="88">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M29" s="85">
-        <v>2719.2410540395717</v>
+        <v>3000</v>
       </c>
       <c r="N29" s="89">
-        <v>1.0291490092554654</v>
+        <v>1.0291492105808067</v>
       </c>
       <c r="O29" s="86">
         <v>0</v>
       </c>
       <c r="P29" s="87">
-        <v>18.281937717935552</v>
+        <v>14.999999999999996</v>
       </c>
       <c r="Q29" s="83">
         <v>0</v>
@@ -7935,7 +7938,7 @@
         <v>2.4</v>
       </c>
       <c r="T29" s="85">
-        <v>2625.5422559999929</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -7957,19 +7960,19 @@
         <v>38</v>
       </c>
       <c r="I30" s="79">
-        <v>17.651984155172105</v>
+        <v>15.999999999999996</v>
       </c>
       <c r="J30" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K30" s="51">
-        <v>19433.531801647398</v>
+        <v>19433.528</v>
       </c>
       <c r="L30" s="47">
-        <v>2.469957622213117</v>
+        <v>2.4699581053939359</v>
       </c>
       <c r="M30" s="43">
-        <v>2719.2410540395717</v>
+        <v>3000</v>
       </c>
       <c r="N30" s="45" t="s">
         <v>38</v>
@@ -7978,7 +7981,7 @@
         <v>38</v>
       </c>
       <c r="P30" s="79">
-        <v>18.281937717935552</v>
+        <v>14.999999999999996</v>
       </c>
       <c r="Q30" s="51" t="s">
         <v>38</v>
@@ -7990,7 +7993,7 @@
         <v>2.4</v>
       </c>
       <c r="T30" s="43">
-        <v>2625.5422559999929</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="32" ht="48" customHeight="1">
@@ -8184,6 +8187,11 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F34:T34"/>
     <mergeCell ref="F36:T36"/>
     <mergeCell ref="F38:T38"/>
     <mergeCell ref="F40:T40"/>
@@ -8193,11 +8201,6 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
     <mergeCell ref="F32:T32"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F34:T34"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:T12"/>
     <mergeCell ref="H17:M17"/>

--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/Campaign export/CampaignExport_PlansWith13And14Weeks.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Broadcast Proposal Gorilla Glue Q4 '19 - Q1 '20</t>
   </si>
@@ -196,7 +196,7 @@
     <t>Posting</t>
   </si>
   <si>
-    <t>ENLN - M-F 04:00pm - 12:05am</t>
+    <t>EMN - M-F 04:00am - 10:00am, ENLN - M-F 04:00pm - 12:05am, PMN - M-F 01:00pm - 12:05am</t>
   </si>
   <si>
     <t>2Q '20 ENLN :30s</t>
@@ -223,21 +223,33 @@
     <t>2Q '20 ENLN Total</t>
   </si>
   <si>
+    <t>1Q '21 EMN :30s</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>1Q '21 EMN Total</t>
+  </si>
+  <si>
     <t>1Q '21 ENLN :30s</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
     <t>1Q '21 ENLN Total</t>
   </si>
   <si>
+    <t>1Q '21 PMN :30s</t>
+  </si>
+  <si>
+    <t>1Q '21 PMN Total</t>
+  </si>
+  <si>
     <t>4Q '23 ENLN :30s</t>
   </si>
   <si>
@@ -271,7 +283,7 @@
     <t>Broadcast Proposal Campaign with all types of plans</t>
   </si>
   <si>
-    <t>Created 06/17/20</t>
+    <t>Created 08/05/20</t>
   </si>
   <si>
     <t>Stub Agency</t>
@@ -313,6 +325,12 @@
     <t>Q1 2021</t>
   </si>
   <si>
+    <t>Even</t>
+  </si>
+  <si>
+    <t>PMN</t>
+  </si>
+  <si>
     <t>Q4 2023</t>
   </si>
   <si>
@@ -320,6 +338,42 @@
   </si>
   <si>
     <t>~80% Minimum TV HH Coverage</t>
+  </si>
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">EMN: </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Genre Includes News (Plan ID 2190)</d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> PMN: </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="14"/>
+        <d:color rgb="FF3D5261"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Genre Includes News (Plan ID 2190)</d:t>
+    </d:r>
   </si>
   <si>
     <t>All CPMs are derived from 100% broadcast deliveries, no cable unless otherwise noted.</t>
@@ -632,318 +686,318 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="106">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0">
+    <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="2"/>
     </xf>
-    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="3" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="167" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="15" applyBorder="1" xfId="0">
+    <xf numFmtId="1" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="15" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="9" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1510,7 +1564,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Q80"/>
+  <dimension ref="A2:Q116"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" tabSelected="0">
       <selection activeCell="P2" sqref="P2"/>
@@ -1541,7 +1595,7 @@
       <c r="K2" s="5"/>
       <c r="P2" s="6" t="str">
         <f>'PROPOSAL'!T2</f>
-        <v>Created 06/17/20</v>
+        <v>Created 08/05/20</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -1706,46 +1760,46 @@
         <v>23</v>
       </c>
       <c r="C10" s="67">
-        <v>0</v>
+        <v>0.1568</v>
       </c>
       <c r="D10" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="E10" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="F10" s="59">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="G10" s="67">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="H10" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="I10" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="J10" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="K10" s="59">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="L10" s="67">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="M10" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="N10" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="O10" s="59">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="P10" s="59">
-        <v>0</v>
+        <v>1.9999999999999996</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1">
@@ -2030,46 +2084,46 @@
         <v>23</v>
       </c>
       <c r="C19" s="67">
-        <v>0</v>
+        <v>0.1568</v>
       </c>
       <c r="D19" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="E19" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="F19" s="59">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="G19" s="67">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="H19" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="I19" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="J19" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="K19" s="59">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="L19" s="67">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="M19" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="N19" s="37">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="O19" s="59">
-        <v>0</v>
+        <v>0.1536</v>
       </c>
       <c r="P19" s="59">
-        <v>0</v>
+        <v>1.9999999999999996</v>
       </c>
     </row>
     <row r="20" ht="24" customHeight="1">
@@ -2307,46 +2361,46 @@
         <v>59</v>
       </c>
       <c r="C27" s="63">
-        <v>0.0196</v>
+        <v>0.006468</v>
       </c>
       <c r="D27" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="E27" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="F27" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="G27" s="65">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="H27" s="63">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="I27" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="J27" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="K27" s="65">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="L27" s="63">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="M27" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="N27" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="O27" s="65">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="P27" s="69">
-        <v>0.24999999999999994</v>
+        <v>0.08249999999999999</v>
       </c>
     </row>
     <row r="28" ht="24" customHeight="1">
@@ -2354,46 +2408,46 @@
         <v>23</v>
       </c>
       <c r="C28" s="67">
-        <v>0</v>
+        <v>0.053312000000000005</v>
       </c>
       <c r="D28" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="E28" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="F28" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="G28" s="59">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="H28" s="67">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="I28" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="J28" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="K28" s="59">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="L28" s="67">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="M28" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="N28" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="O28" s="59">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="P28" s="59">
-        <v>0</v>
+        <v>0.68000000000000016</v>
       </c>
     </row>
     <row r="29" ht="24" customHeight="1">
@@ -2401,46 +2455,46 @@
         <v>28</v>
       </c>
       <c r="C29" s="66">
-        <v>392</v>
+        <v>129.36</v>
       </c>
       <c r="D29" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="E29" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="F29" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="G29" s="58">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="H29" s="66">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="I29" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="J29" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="K29" s="58">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="L29" s="66">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="M29" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="N29" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="O29" s="58">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="P29" s="58">
-        <v>5000</v>
+        <v>1650.0000000000002</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1">
@@ -2495,46 +2549,46 @@
         <v>60</v>
       </c>
       <c r="C31" s="70">
-        <v>940.8</v>
+        <v>310.464</v>
       </c>
       <c r="D31" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="E31" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="F31" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="G31" s="72">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="H31" s="70">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="I31" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="J31" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="K31" s="72">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="L31" s="70">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="M31" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="N31" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="O31" s="72">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="P31" s="72">
-        <v>12000</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1">
@@ -2631,46 +2685,46 @@
         <v>59</v>
       </c>
       <c r="C36" s="63">
-        <v>0.0196</v>
+        <v>0.0064680000000000007</v>
       </c>
       <c r="D36" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="E36" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="F36" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="G36" s="65">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="H36" s="63">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="I36" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="J36" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="K36" s="65">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="L36" s="63">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="M36" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="N36" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="O36" s="65">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="P36" s="69">
-        <v>0.24999999999999994</v>
+        <v>0.08249999999999999</v>
       </c>
     </row>
     <row r="37" ht="24" customHeight="1">
@@ -2678,46 +2732,46 @@
         <v>23</v>
       </c>
       <c r="C37" s="67">
-        <v>0</v>
+        <v>0.053312000000000005</v>
       </c>
       <c r="D37" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="E37" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="F37" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="G37" s="59">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="H37" s="67">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="I37" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="J37" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="K37" s="59">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="L37" s="67">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="M37" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="N37" s="37">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="O37" s="59">
-        <v>0</v>
+        <v>0.052224</v>
       </c>
       <c r="P37" s="59">
-        <v>0</v>
+        <v>0.68000000000000016</v>
       </c>
     </row>
     <row r="38" ht="24" customHeight="1">
@@ -2725,46 +2779,46 @@
         <v>28</v>
       </c>
       <c r="C38" s="66">
-        <v>392</v>
+        <v>129.36</v>
       </c>
       <c r="D38" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="E38" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="F38" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="G38" s="58">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="H38" s="66">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="I38" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="J38" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="K38" s="58">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="L38" s="66">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="M38" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="N38" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="O38" s="58">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="P38" s="58">
-        <v>5000</v>
+        <v>1650.0000000000002</v>
       </c>
     </row>
     <row r="39" ht="24" customHeight="1">
@@ -2819,46 +2873,46 @@
         <v>60</v>
       </c>
       <c r="C40" s="70">
-        <v>940.8</v>
+        <v>310.464</v>
       </c>
       <c r="D40" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="E40" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="F40" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="G40" s="72">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="H40" s="70">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="I40" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="J40" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="K40" s="72">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="L40" s="70">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="M40" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="N40" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="O40" s="72">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="P40" s="72">
-        <v>12000</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1">
@@ -2885,72 +2939,68 @@
         <v>68</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D43" s="99"/>
       <c r="E43" s="99"/>
       <c r="F43" s="99"/>
       <c r="G43" s="100"/>
       <c r="H43" s="99" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I43" s="99"/>
       <c r="J43" s="99"/>
       <c r="K43" s="100"/>
       <c r="L43" s="98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M43" s="99"/>
       <c r="N43" s="99"/>
-      <c r="O43" s="99"/>
-      <c r="P43" s="100"/>
-      <c r="Q43" s="30"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="30"/>
     </row>
     <row r="44" ht="24" customHeight="1">
       <c r="B44" s="75"/>
       <c r="C44" s="56">
-        <v>45194</v>
+        <v>44193</v>
       </c>
       <c r="D44" s="56">
-        <v>45201</v>
+        <v>44200</v>
       </c>
       <c r="E44" s="56">
-        <v>45208</v>
+        <v>44207</v>
       </c>
       <c r="F44" s="56">
-        <v>45215</v>
+        <v>44214</v>
       </c>
       <c r="G44" s="57">
-        <v>45222</v>
+        <v>44221</v>
       </c>
       <c r="H44" s="56">
-        <v>45229</v>
+        <v>44228</v>
       </c>
       <c r="I44" s="56">
-        <v>45236</v>
+        <v>44235</v>
       </c>
       <c r="J44" s="56">
-        <v>45243</v>
+        <v>44242</v>
       </c>
       <c r="K44" s="57">
-        <v>45250</v>
+        <v>44249</v>
       </c>
       <c r="L44" s="56">
-        <v>45257</v>
+        <v>44256</v>
       </c>
       <c r="M44" s="56">
-        <v>45264</v>
+        <v>44263</v>
       </c>
       <c r="N44" s="56">
-        <v>45271</v>
+        <v>44270</v>
       </c>
       <c r="O44" s="56">
-        <v>45278</v>
-      </c>
-      <c r="P44" s="56">
-        <v>45285</v>
-      </c>
-      <c r="Q44" s="68" t="s">
+        <v>44277</v>
+      </c>
+      <c r="P44" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2959,49 +3009,46 @@
         <v>59</v>
       </c>
       <c r="C45" s="63">
-        <v>0</v>
+        <v>0.006664</v>
       </c>
       <c r="D45" s="64">
-        <v>0.023</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="E45" s="64">
-        <v>0.0227</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="F45" s="64">
-        <v>0.0227</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="G45" s="65">
-        <v>0.0227</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="H45" s="63">
-        <v>0.0227</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="I45" s="64">
-        <v>0.0227</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="J45" s="64">
-        <v>0.0227</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="K45" s="65">
-        <v>0.0227</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="L45" s="63">
-        <v>0.0227</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="M45" s="64">
-        <v>0.0227</v>
+        <v>0.0065280000000000008</v>
       </c>
       <c r="N45" s="64">
-        <v>0.0227</v>
-      </c>
-      <c r="O45" s="64">
-        <v>0</v>
-      </c>
-      <c r="P45" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="69">
-        <v>0.25</v>
+        <v>0.0065280000000000008</v>
+      </c>
+      <c r="O45" s="65">
+        <v>0.0065280000000000008</v>
+      </c>
+      <c r="P45" s="69">
+        <v>0.08500000000000002</v>
       </c>
     </row>
     <row r="46" ht="24" customHeight="1">
@@ -3009,49 +3056,46 @@
         <v>23</v>
       </c>
       <c r="C46" s="67">
-        <v>0</v>
+        <v>0.051743999999999991</v>
       </c>
       <c r="D46" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="E46" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="F46" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="G46" s="59">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="H46" s="67">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="I46" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="J46" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="K46" s="59">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="L46" s="67">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="M46" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="N46" s="37">
-        <v>0</v>
-      </c>
-      <c r="O46" s="37">
-        <v>0</v>
+        <v>0.050688</v>
+      </c>
+      <c r="O46" s="59">
+        <v>0.050688</v>
       </c>
       <c r="P46" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="59">
-        <v>0</v>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="47" ht="24" customHeight="1">
@@ -3059,49 +3103,46 @@
         <v>28</v>
       </c>
       <c r="C47" s="66">
-        <v>0</v>
+        <v>133.28</v>
       </c>
       <c r="D47" s="36">
-        <v>460</v>
+        <v>130.56</v>
       </c>
       <c r="E47" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="F47" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="G47" s="58">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="H47" s="66">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="I47" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="J47" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="K47" s="58">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="L47" s="66">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="M47" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="N47" s="36">
-        <v>454</v>
-      </c>
-      <c r="O47" s="36">
-        <v>0</v>
+        <v>130.56</v>
+      </c>
+      <c r="O47" s="58">
+        <v>130.56</v>
       </c>
       <c r="P47" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="58">
-        <v>5000</v>
+        <v>1699.9999999999996</v>
       </c>
     </row>
     <row r="48" ht="24" customHeight="1">
@@ -3109,7 +3150,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="73">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="D48" s="38">
         <v>2.4</v>
@@ -3144,13 +3185,10 @@
       <c r="N48" s="38">
         <v>2.4</v>
       </c>
-      <c r="O48" s="38">
-        <v>0</v>
+      <c r="O48" s="74">
+        <v>2.4</v>
       </c>
       <c r="P48" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="74">
         <v>2.4</v>
       </c>
     </row>
@@ -3159,49 +3197,46 @@
         <v>60</v>
       </c>
       <c r="C49" s="70">
-        <v>0</v>
+        <v>319.872</v>
       </c>
       <c r="D49" s="71">
-        <v>1104</v>
+        <v>313.344</v>
       </c>
       <c r="E49" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="F49" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="G49" s="72">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="H49" s="70">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="I49" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="J49" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="K49" s="72">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="L49" s="70">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="M49" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="N49" s="71">
-        <v>1089.6</v>
-      </c>
-      <c r="O49" s="71">
-        <v>0</v>
+        <v>313.344</v>
+      </c>
+      <c r="O49" s="72">
+        <v>313.344</v>
       </c>
       <c r="P49" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="72">
-        <v>12000</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1">
@@ -3220,81 +3255,76 @@
       <c r="L50" s="92"/>
       <c r="M50" s="93"/>
       <c r="N50" s="93"/>
-      <c r="O50" s="93"/>
-      <c r="P50" s="94"/>
-      <c r="Q50" s="91"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="91"/>
     </row>
     <row r="52">
       <c r="B52" s="105" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D52" s="99"/>
       <c r="E52" s="99"/>
       <c r="F52" s="99"/>
       <c r="G52" s="100"/>
       <c r="H52" s="99" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I52" s="99"/>
       <c r="J52" s="99"/>
       <c r="K52" s="100"/>
       <c r="L52" s="98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M52" s="99"/>
       <c r="N52" s="99"/>
-      <c r="O52" s="99"/>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="30"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="30"/>
     </row>
     <row r="53" ht="24" customHeight="1">
       <c r="B53" s="75"/>
       <c r="C53" s="56">
-        <v>45194</v>
+        <v>44193</v>
       </c>
       <c r="D53" s="56">
-        <v>45201</v>
+        <v>44200</v>
       </c>
       <c r="E53" s="56">
-        <v>45208</v>
+        <v>44207</v>
       </c>
       <c r="F53" s="56">
-        <v>45215</v>
+        <v>44214</v>
       </c>
       <c r="G53" s="57">
-        <v>45222</v>
+        <v>44221</v>
       </c>
       <c r="H53" s="56">
-        <v>45229</v>
+        <v>44228</v>
       </c>
       <c r="I53" s="56">
-        <v>45236</v>
+        <v>44235</v>
       </c>
       <c r="J53" s="56">
-        <v>45243</v>
+        <v>44242</v>
       </c>
       <c r="K53" s="57">
-        <v>45250</v>
+        <v>44249</v>
       </c>
       <c r="L53" s="56">
-        <v>45257</v>
+        <v>44256</v>
       </c>
       <c r="M53" s="56">
-        <v>45264</v>
+        <v>44263</v>
       </c>
       <c r="N53" s="56">
-        <v>45271</v>
+        <v>44270</v>
       </c>
       <c r="O53" s="56">
-        <v>45278</v>
-      </c>
-      <c r="P53" s="56">
-        <v>45285</v>
-      </c>
-      <c r="Q53" s="68" t="s">
+        <v>44277</v>
+      </c>
+      <c r="P53" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3303,49 +3333,46 @@
         <v>59</v>
       </c>
       <c r="C54" s="63">
-        <v>0</v>
+        <v>0.006664</v>
       </c>
       <c r="D54" s="64">
-        <v>0.023</v>
+        <v>0.006528</v>
       </c>
       <c r="E54" s="64">
-        <v>0.0227</v>
+        <v>0.006528</v>
       </c>
       <c r="F54" s="64">
-        <v>0.0227</v>
+        <v>0.006528</v>
       </c>
       <c r="G54" s="65">
-        <v>0.0227</v>
+        <v>0.006528</v>
       </c>
       <c r="H54" s="63">
-        <v>0.0227</v>
+        <v>0.006528</v>
       </c>
       <c r="I54" s="64">
-        <v>0.0227</v>
+        <v>0.006528</v>
       </c>
       <c r="J54" s="64">
-        <v>0.0227</v>
+        <v>0.006528</v>
       </c>
       <c r="K54" s="65">
-        <v>0.0227</v>
+        <v>0.006528</v>
       </c>
       <c r="L54" s="63">
-        <v>0.0227</v>
+        <v>0.006528</v>
       </c>
       <c r="M54" s="64">
-        <v>0.0227</v>
+        <v>0.006528</v>
       </c>
       <c r="N54" s="64">
-        <v>0.0227</v>
-      </c>
-      <c r="O54" s="64">
-        <v>0</v>
-      </c>
-      <c r="P54" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="69">
-        <v>0.25</v>
+        <v>0.006528</v>
+      </c>
+      <c r="O54" s="65">
+        <v>0.006528</v>
+      </c>
+      <c r="P54" s="69">
+        <v>0.08500000000000002</v>
       </c>
     </row>
     <row r="55" ht="24" customHeight="1">
@@ -3353,49 +3380,46 @@
         <v>23</v>
       </c>
       <c r="C55" s="67">
-        <v>0</v>
+        <v>0.051743999999999991</v>
       </c>
       <c r="D55" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="E55" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="F55" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="G55" s="59">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="H55" s="67">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="I55" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="J55" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="K55" s="59">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="L55" s="67">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="M55" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="N55" s="37">
-        <v>0</v>
-      </c>
-      <c r="O55" s="37">
-        <v>0</v>
+        <v>0.050688</v>
+      </c>
+      <c r="O55" s="59">
+        <v>0.050688</v>
       </c>
       <c r="P55" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="59">
-        <v>0</v>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="56" ht="24" customHeight="1">
@@ -3403,49 +3427,46 @@
         <v>28</v>
       </c>
       <c r="C56" s="66">
-        <v>0</v>
+        <v>133.28</v>
       </c>
       <c r="D56" s="36">
-        <v>460</v>
+        <v>130.56</v>
       </c>
       <c r="E56" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="F56" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="G56" s="58">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="H56" s="66">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="I56" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="J56" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="K56" s="58">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="L56" s="66">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="M56" s="36">
-        <v>454</v>
+        <v>130.56</v>
       </c>
       <c r="N56" s="36">
-        <v>454</v>
-      </c>
-      <c r="O56" s="36">
-        <v>0</v>
+        <v>130.56</v>
+      </c>
+      <c r="O56" s="58">
+        <v>130.56</v>
       </c>
       <c r="P56" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="58">
-        <v>5000</v>
+        <v>1699.9999999999996</v>
       </c>
     </row>
     <row r="57" ht="24" customHeight="1">
@@ -3453,7 +3474,7 @@
         <v>30</v>
       </c>
       <c r="C57" s="73">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="D57" s="38">
         <v>2.4</v>
@@ -3488,13 +3509,10 @@
       <c r="N57" s="38">
         <v>2.4</v>
       </c>
-      <c r="O57" s="38">
-        <v>0</v>
+      <c r="O57" s="74">
+        <v>2.4</v>
       </c>
       <c r="P57" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="74">
         <v>2.4</v>
       </c>
     </row>
@@ -3503,49 +3521,46 @@
         <v>60</v>
       </c>
       <c r="C58" s="70">
-        <v>0</v>
+        <v>319.872</v>
       </c>
       <c r="D58" s="71">
-        <v>1104</v>
+        <v>313.344</v>
       </c>
       <c r="E58" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="F58" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="G58" s="72">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="H58" s="70">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="I58" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="J58" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="K58" s="72">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="L58" s="70">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="M58" s="71">
-        <v>1089.6</v>
+        <v>313.344</v>
       </c>
       <c r="N58" s="71">
-        <v>1089.6</v>
-      </c>
-      <c r="O58" s="71">
-        <v>0</v>
+        <v>313.344</v>
+      </c>
+      <c r="O58" s="72">
+        <v>313.344</v>
       </c>
       <c r="P58" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="72">
-        <v>12000</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="59" ht="30" customHeight="1">
@@ -3564,30 +3579,29 @@
       <c r="L59" s="92"/>
       <c r="M59" s="93"/>
       <c r="N59" s="93"/>
-      <c r="O59" s="93"/>
-      <c r="P59" s="94"/>
-      <c r="Q59" s="91"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="91"/>
     </row>
     <row r="61">
       <c r="B61" s="105" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C61" s="98" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="99"/>
       <c r="E61" s="99"/>
-      <c r="F61" s="100"/>
-      <c r="G61" s="99" t="s">
+      <c r="F61" s="99"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="99"/>
       <c r="I61" s="99"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="98" t="s">
+      <c r="J61" s="99"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="L61" s="99"/>
       <c r="M61" s="99"/>
       <c r="N61" s="99"/>
       <c r="O61" s="100"/>
@@ -3596,43 +3610,43 @@
     <row r="62" ht="24" customHeight="1">
       <c r="B62" s="75"/>
       <c r="C62" s="56">
-        <v>45292</v>
+        <v>44193</v>
       </c>
       <c r="D62" s="56">
-        <v>45299</v>
+        <v>44200</v>
       </c>
       <c r="E62" s="56">
-        <v>45306</v>
-      </c>
-      <c r="F62" s="57">
-        <v>45313</v>
-      </c>
-      <c r="G62" s="56">
-        <v>45320</v>
+        <v>44207</v>
+      </c>
+      <c r="F62" s="56">
+        <v>44214</v>
+      </c>
+      <c r="G62" s="57">
+        <v>44221</v>
       </c>
       <c r="H62" s="56">
-        <v>45327</v>
+        <v>44228</v>
       </c>
       <c r="I62" s="56">
-        <v>45334</v>
-      </c>
-      <c r="J62" s="57">
-        <v>45341</v>
-      </c>
-      <c r="K62" s="56">
-        <v>45348</v>
+        <v>44235</v>
+      </c>
+      <c r="J62" s="56">
+        <v>44242</v>
+      </c>
+      <c r="K62" s="57">
+        <v>44249</v>
       </c>
       <c r="L62" s="56">
-        <v>45355</v>
+        <v>44256</v>
       </c>
       <c r="M62" s="56">
-        <v>45362</v>
+        <v>44263</v>
       </c>
       <c r="N62" s="56">
-        <v>45369</v>
+        <v>44270</v>
       </c>
       <c r="O62" s="56">
-        <v>45376</v>
+        <v>44277</v>
       </c>
       <c r="P62" s="68" t="s">
         <v>37</v>
@@ -3643,46 +3657,46 @@
         <v>59</v>
       </c>
       <c r="C63" s="63">
-        <v>0.0196</v>
+        <v>0.006468</v>
       </c>
       <c r="D63" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="E63" s="64">
-        <v>0.0192</v>
-      </c>
-      <c r="F63" s="65">
-        <v>0.0192</v>
-      </c>
-      <c r="G63" s="63">
-        <v>0.0192</v>
-      </c>
-      <c r="H63" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
+      </c>
+      <c r="F63" s="64">
+        <v>0.006336</v>
+      </c>
+      <c r="G63" s="65">
+        <v>0.006336</v>
+      </c>
+      <c r="H63" s="63">
+        <v>0.006336</v>
       </c>
       <c r="I63" s="64">
-        <v>0.0192</v>
-      </c>
-      <c r="J63" s="65">
-        <v>0.0192</v>
-      </c>
-      <c r="K63" s="63">
-        <v>0.0192</v>
-      </c>
-      <c r="L63" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
+      </c>
+      <c r="J63" s="64">
+        <v>0.006336</v>
+      </c>
+      <c r="K63" s="65">
+        <v>0.006336</v>
+      </c>
+      <c r="L63" s="63">
+        <v>0.006336</v>
       </c>
       <c r="M63" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="N63" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="O63" s="65">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="P63" s="69">
-        <v>0.24999999999999994</v>
+        <v>0.08249999999999999</v>
       </c>
     </row>
     <row r="64" ht="24" customHeight="1">
@@ -3690,46 +3704,46 @@
         <v>23</v>
       </c>
       <c r="C64" s="67">
-        <v>0</v>
+        <v>0.051744</v>
       </c>
       <c r="D64" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="E64" s="37">
-        <v>0</v>
-      </c>
-      <c r="F64" s="59">
-        <v>0</v>
-      </c>
-      <c r="G64" s="67">
-        <v>0</v>
-      </c>
-      <c r="H64" s="37">
-        <v>0</v>
+        <v>0.050688</v>
+      </c>
+      <c r="F64" s="37">
+        <v>0.050688</v>
+      </c>
+      <c r="G64" s="59">
+        <v>0.050688</v>
+      </c>
+      <c r="H64" s="67">
+        <v>0.050688</v>
       </c>
       <c r="I64" s="37">
-        <v>0</v>
-      </c>
-      <c r="J64" s="59">
-        <v>0</v>
-      </c>
-      <c r="K64" s="67">
-        <v>0</v>
-      </c>
-      <c r="L64" s="37">
-        <v>0</v>
+        <v>0.050688</v>
+      </c>
+      <c r="J64" s="37">
+        <v>0.050688</v>
+      </c>
+      <c r="K64" s="59">
+        <v>0.050688</v>
+      </c>
+      <c r="L64" s="67">
+        <v>0.050688</v>
       </c>
       <c r="M64" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="N64" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="O64" s="59">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="P64" s="59">
-        <v>0</v>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="65" ht="24" customHeight="1">
@@ -3737,46 +3751,46 @@
         <v>28</v>
       </c>
       <c r="C65" s="66">
-        <v>392</v>
+        <v>129.36</v>
       </c>
       <c r="D65" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="E65" s="36">
-        <v>384</v>
-      </c>
-      <c r="F65" s="58">
-        <v>384</v>
-      </c>
-      <c r="G65" s="66">
-        <v>384</v>
-      </c>
-      <c r="H65" s="36">
-        <v>384</v>
+        <v>126.72</v>
+      </c>
+      <c r="F65" s="36">
+        <v>126.72</v>
+      </c>
+      <c r="G65" s="58">
+        <v>126.72</v>
+      </c>
+      <c r="H65" s="66">
+        <v>126.72</v>
       </c>
       <c r="I65" s="36">
-        <v>384</v>
-      </c>
-      <c r="J65" s="58">
-        <v>384</v>
-      </c>
-      <c r="K65" s="66">
-        <v>384</v>
-      </c>
-      <c r="L65" s="36">
-        <v>384</v>
+        <v>126.72</v>
+      </c>
+      <c r="J65" s="36">
+        <v>126.72</v>
+      </c>
+      <c r="K65" s="58">
+        <v>126.72</v>
+      </c>
+      <c r="L65" s="66">
+        <v>126.72</v>
       </c>
       <c r="M65" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="N65" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="O65" s="58">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="P65" s="58">
-        <v>5000</v>
+        <v>1650.0000000000002</v>
       </c>
     </row>
     <row r="66" ht="24" customHeight="1">
@@ -3792,25 +3806,25 @@
       <c r="E66" s="38">
         <v>2.4</v>
       </c>
-      <c r="F66" s="74">
-        <v>2.4</v>
-      </c>
-      <c r="G66" s="73">
-        <v>2.4</v>
-      </c>
-      <c r="H66" s="38">
+      <c r="F66" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="G66" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="H66" s="73">
         <v>2.4</v>
       </c>
       <c r="I66" s="38">
         <v>2.4</v>
       </c>
-      <c r="J66" s="74">
-        <v>2.4</v>
-      </c>
-      <c r="K66" s="73">
-        <v>2.4</v>
-      </c>
-      <c r="L66" s="38">
+      <c r="J66" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="K66" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="L66" s="73">
         <v>2.4</v>
       </c>
       <c r="M66" s="38">
@@ -3831,46 +3845,46 @@
         <v>60</v>
       </c>
       <c r="C67" s="70">
-        <v>940.8</v>
+        <v>310.464</v>
       </c>
       <c r="D67" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="E67" s="71">
-        <v>921.6</v>
-      </c>
-      <c r="F67" s="72">
-        <v>921.6</v>
-      </c>
-      <c r="G67" s="70">
-        <v>921.6</v>
-      </c>
-      <c r="H67" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
+      </c>
+      <c r="F67" s="71">
+        <v>304.128</v>
+      </c>
+      <c r="G67" s="72">
+        <v>304.128</v>
+      </c>
+      <c r="H67" s="70">
+        <v>304.128</v>
       </c>
       <c r="I67" s="71">
-        <v>921.6</v>
-      </c>
-      <c r="J67" s="72">
-        <v>921.6</v>
-      </c>
-      <c r="K67" s="70">
-        <v>921.6</v>
-      </c>
-      <c r="L67" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
+      </c>
+      <c r="J67" s="71">
+        <v>304.128</v>
+      </c>
+      <c r="K67" s="72">
+        <v>304.128</v>
+      </c>
+      <c r="L67" s="70">
+        <v>304.128</v>
       </c>
       <c r="M67" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="N67" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="O67" s="72">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="P67" s="72">
-        <v>12000</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="68" ht="30" customHeight="1">
@@ -3881,12 +3895,12 @@
       <c r="D68" s="93"/>
       <c r="E68" s="93"/>
       <c r="F68" s="93"/>
-      <c r="G68" s="92"/>
-      <c r="H68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="92"/>
       <c r="I68" s="93"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="92"/>
-      <c r="L68" s="93"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="94"/>
+      <c r="L68" s="92"/>
       <c r="M68" s="93"/>
       <c r="N68" s="93"/>
       <c r="O68" s="94"/>
@@ -3894,24 +3908,24 @@
     </row>
     <row r="70">
       <c r="B70" s="105" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="98" t="s">
         <v>64</v>
       </c>
       <c r="D70" s="99"/>
       <c r="E70" s="99"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="99" t="s">
+      <c r="F70" s="99"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="H70" s="99"/>
       <c r="I70" s="99"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="98" t="s">
+      <c r="J70" s="99"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="L70" s="99"/>
       <c r="M70" s="99"/>
       <c r="N70" s="99"/>
       <c r="O70" s="100"/>
@@ -3920,43 +3934,43 @@
     <row r="71" ht="24" customHeight="1">
       <c r="B71" s="75"/>
       <c r="C71" s="56">
-        <v>45292</v>
+        <v>44193</v>
       </c>
       <c r="D71" s="56">
-        <v>45299</v>
+        <v>44200</v>
       </c>
       <c r="E71" s="56">
-        <v>45306</v>
-      </c>
-      <c r="F71" s="57">
-        <v>45313</v>
-      </c>
-      <c r="G71" s="56">
-        <v>45320</v>
+        <v>44207</v>
+      </c>
+      <c r="F71" s="56">
+        <v>44214</v>
+      </c>
+      <c r="G71" s="57">
+        <v>44221</v>
       </c>
       <c r="H71" s="56">
-        <v>45327</v>
+        <v>44228</v>
       </c>
       <c r="I71" s="56">
-        <v>45334</v>
-      </c>
-      <c r="J71" s="57">
-        <v>45341</v>
-      </c>
-      <c r="K71" s="56">
-        <v>45348</v>
+        <v>44235</v>
+      </c>
+      <c r="J71" s="56">
+        <v>44242</v>
+      </c>
+      <c r="K71" s="57">
+        <v>44249</v>
       </c>
       <c r="L71" s="56">
-        <v>45355</v>
+        <v>44256</v>
       </c>
       <c r="M71" s="56">
-        <v>45362</v>
+        <v>44263</v>
       </c>
       <c r="N71" s="56">
-        <v>45369</v>
+        <v>44270</v>
       </c>
       <c r="O71" s="56">
-        <v>45376</v>
+        <v>44277</v>
       </c>
       <c r="P71" s="68" t="s">
         <v>37</v>
@@ -3967,46 +3981,46 @@
         <v>59</v>
       </c>
       <c r="C72" s="63">
-        <v>0.0196</v>
+        <v>0.0064680000000000007</v>
       </c>
       <c r="D72" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="E72" s="64">
-        <v>0.0192</v>
-      </c>
-      <c r="F72" s="65">
-        <v>0.0192</v>
-      </c>
-      <c r="G72" s="63">
-        <v>0.0192</v>
-      </c>
-      <c r="H72" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
+      </c>
+      <c r="F72" s="64">
+        <v>0.006336</v>
+      </c>
+      <c r="G72" s="65">
+        <v>0.006336</v>
+      </c>
+      <c r="H72" s="63">
+        <v>0.006336</v>
       </c>
       <c r="I72" s="64">
-        <v>0.0192</v>
-      </c>
-      <c r="J72" s="65">
-        <v>0.0192</v>
-      </c>
-      <c r="K72" s="63">
-        <v>0.0192</v>
-      </c>
-      <c r="L72" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
+      </c>
+      <c r="J72" s="64">
+        <v>0.006336</v>
+      </c>
+      <c r="K72" s="65">
+        <v>0.006336</v>
+      </c>
+      <c r="L72" s="63">
+        <v>0.006336</v>
       </c>
       <c r="M72" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="N72" s="64">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="O72" s="65">
-        <v>0.0192</v>
+        <v>0.006336</v>
       </c>
       <c r="P72" s="69">
-        <v>0.24999999999999994</v>
+        <v>0.08249999999999999</v>
       </c>
     </row>
     <row r="73" ht="24" customHeight="1">
@@ -4014,46 +4028,46 @@
         <v>23</v>
       </c>
       <c r="C73" s="67">
-        <v>0</v>
+        <v>0.051744</v>
       </c>
       <c r="D73" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="E73" s="37">
-        <v>0</v>
-      </c>
-      <c r="F73" s="59">
-        <v>0</v>
-      </c>
-      <c r="G73" s="67">
-        <v>0</v>
-      </c>
-      <c r="H73" s="37">
-        <v>0</v>
+        <v>0.050688</v>
+      </c>
+      <c r="F73" s="37">
+        <v>0.050688</v>
+      </c>
+      <c r="G73" s="59">
+        <v>0.050688</v>
+      </c>
+      <c r="H73" s="67">
+        <v>0.050688</v>
       </c>
       <c r="I73" s="37">
-        <v>0</v>
-      </c>
-      <c r="J73" s="59">
-        <v>0</v>
-      </c>
-      <c r="K73" s="67">
-        <v>0</v>
-      </c>
-      <c r="L73" s="37">
-        <v>0</v>
+        <v>0.050688</v>
+      </c>
+      <c r="J73" s="37">
+        <v>0.050688</v>
+      </c>
+      <c r="K73" s="59">
+        <v>0.050688</v>
+      </c>
+      <c r="L73" s="67">
+        <v>0.050688</v>
       </c>
       <c r="M73" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="N73" s="37">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="O73" s="59">
-        <v>0</v>
+        <v>0.050688</v>
       </c>
       <c r="P73" s="59">
-        <v>0</v>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="74" ht="24" customHeight="1">
@@ -4061,46 +4075,46 @@
         <v>28</v>
       </c>
       <c r="C74" s="66">
-        <v>392</v>
+        <v>129.36</v>
       </c>
       <c r="D74" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="E74" s="36">
-        <v>384</v>
-      </c>
-      <c r="F74" s="58">
-        <v>384</v>
-      </c>
-      <c r="G74" s="66">
-        <v>384</v>
-      </c>
-      <c r="H74" s="36">
-        <v>384</v>
+        <v>126.72</v>
+      </c>
+      <c r="F74" s="36">
+        <v>126.72</v>
+      </c>
+      <c r="G74" s="58">
+        <v>126.72</v>
+      </c>
+      <c r="H74" s="66">
+        <v>126.72</v>
       </c>
       <c r="I74" s="36">
-        <v>384</v>
-      </c>
-      <c r="J74" s="58">
-        <v>384</v>
-      </c>
-      <c r="K74" s="66">
-        <v>384</v>
-      </c>
-      <c r="L74" s="36">
-        <v>384</v>
+        <v>126.72</v>
+      </c>
+      <c r="J74" s="36">
+        <v>126.72</v>
+      </c>
+      <c r="K74" s="58">
+        <v>126.72</v>
+      </c>
+      <c r="L74" s="66">
+        <v>126.72</v>
       </c>
       <c r="M74" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="N74" s="36">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="O74" s="58">
-        <v>384</v>
+        <v>126.72</v>
       </c>
       <c r="P74" s="58">
-        <v>5000</v>
+        <v>1650.0000000000002</v>
       </c>
     </row>
     <row r="75" ht="24" customHeight="1">
@@ -4116,25 +4130,25 @@
       <c r="E75" s="38">
         <v>2.4</v>
       </c>
-      <c r="F75" s="74">
-        <v>2.4</v>
-      </c>
-      <c r="G75" s="73">
-        <v>2.4</v>
-      </c>
-      <c r="H75" s="38">
+      <c r="F75" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="G75" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="H75" s="73">
         <v>2.4</v>
       </c>
       <c r="I75" s="38">
         <v>2.4</v>
       </c>
-      <c r="J75" s="74">
-        <v>2.4</v>
-      </c>
-      <c r="K75" s="73">
-        <v>2.4</v>
-      </c>
-      <c r="L75" s="38">
+      <c r="J75" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="K75" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="L75" s="73">
         <v>2.4</v>
       </c>
       <c r="M75" s="38">
@@ -4155,46 +4169,46 @@
         <v>60</v>
       </c>
       <c r="C76" s="70">
-        <v>940.8</v>
+        <v>310.464</v>
       </c>
       <c r="D76" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="E76" s="71">
-        <v>921.6</v>
-      </c>
-      <c r="F76" s="72">
-        <v>921.6</v>
-      </c>
-      <c r="G76" s="70">
-        <v>921.6</v>
-      </c>
-      <c r="H76" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
+      </c>
+      <c r="F76" s="71">
+        <v>304.128</v>
+      </c>
+      <c r="G76" s="72">
+        <v>304.128</v>
+      </c>
+      <c r="H76" s="70">
+        <v>304.128</v>
       </c>
       <c r="I76" s="71">
-        <v>921.6</v>
-      </c>
-      <c r="J76" s="72">
-        <v>921.6</v>
-      </c>
-      <c r="K76" s="70">
-        <v>921.6</v>
-      </c>
-      <c r="L76" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
+      </c>
+      <c r="J76" s="71">
+        <v>304.128</v>
+      </c>
+      <c r="K76" s="72">
+        <v>304.128</v>
+      </c>
+      <c r="L76" s="70">
+        <v>304.128</v>
       </c>
       <c r="M76" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="N76" s="71">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="O76" s="72">
-        <v>921.6</v>
+        <v>304.128</v>
       </c>
       <c r="P76" s="72">
-        <v>12000</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="77" ht="30" customHeight="1">
@@ -4205,19 +4219,1355 @@
       <c r="D77" s="93"/>
       <c r="E77" s="93"/>
       <c r="F77" s="93"/>
-      <c r="G77" s="92"/>
-      <c r="H77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="92"/>
       <c r="I77" s="93"/>
-      <c r="J77" s="94"/>
-      <c r="K77" s="92"/>
-      <c r="L77" s="93"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="94"/>
+      <c r="L77" s="92"/>
       <c r="M77" s="93"/>
       <c r="N77" s="93"/>
       <c r="O77" s="94"/>
       <c r="P77" s="91"/>
     </row>
+    <row r="79">
+      <c r="B79" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79" s="99"/>
+      <c r="J79" s="99"/>
+      <c r="K79" s="100"/>
+      <c r="L79" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="M79" s="99"/>
+      <c r="N79" s="99"/>
+      <c r="O79" s="99"/>
+      <c r="P79" s="100"/>
+      <c r="Q79" s="30"/>
+    </row>
     <row r="80" ht="24" customHeight="1">
-      <c r="P80" s="60"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="56">
+        <v>45194</v>
+      </c>
+      <c r="D80" s="56">
+        <v>45201</v>
+      </c>
+      <c r="E80" s="56">
+        <v>45208</v>
+      </c>
+      <c r="F80" s="56">
+        <v>45215</v>
+      </c>
+      <c r="G80" s="57">
+        <v>45222</v>
+      </c>
+      <c r="H80" s="56">
+        <v>45229</v>
+      </c>
+      <c r="I80" s="56">
+        <v>45236</v>
+      </c>
+      <c r="J80" s="56">
+        <v>45243</v>
+      </c>
+      <c r="K80" s="57">
+        <v>45250</v>
+      </c>
+      <c r="L80" s="56">
+        <v>45257</v>
+      </c>
+      <c r="M80" s="56">
+        <v>45264</v>
+      </c>
+      <c r="N80" s="56">
+        <v>45271</v>
+      </c>
+      <c r="O80" s="56">
+        <v>45278</v>
+      </c>
+      <c r="P80" s="56">
+        <v>45285</v>
+      </c>
+      <c r="Q80" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" ht="24" customHeight="1">
+      <c r="B81" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="63">
+        <v>0</v>
+      </c>
+      <c r="D81" s="64">
+        <v>0.023</v>
+      </c>
+      <c r="E81" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="F81" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="G81" s="65">
+        <v>0.0227</v>
+      </c>
+      <c r="H81" s="63">
+        <v>0.0227</v>
+      </c>
+      <c r="I81" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="J81" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="K81" s="65">
+        <v>0.0227</v>
+      </c>
+      <c r="L81" s="63">
+        <v>0.0227</v>
+      </c>
+      <c r="M81" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="N81" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="O81" s="64">
+        <v>0</v>
+      </c>
+      <c r="P81" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="69">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="82" ht="24" customHeight="1">
+      <c r="B82" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="67">
+        <v>0</v>
+      </c>
+      <c r="D82" s="37">
+        <v>0.184</v>
+      </c>
+      <c r="E82" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="F82" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="G82" s="59">
+        <v>0.1816</v>
+      </c>
+      <c r="H82" s="67">
+        <v>0.1816</v>
+      </c>
+      <c r="I82" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="J82" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="K82" s="59">
+        <v>0.1816</v>
+      </c>
+      <c r="L82" s="67">
+        <v>0.1816</v>
+      </c>
+      <c r="M82" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="N82" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="O82" s="37">
+        <v>0</v>
+      </c>
+      <c r="P82" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" ht="24" customHeight="1">
+      <c r="B83" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="66">
+        <v>0</v>
+      </c>
+      <c r="D83" s="36">
+        <v>460</v>
+      </c>
+      <c r="E83" s="36">
+        <v>454</v>
+      </c>
+      <c r="F83" s="36">
+        <v>454</v>
+      </c>
+      <c r="G83" s="58">
+        <v>454</v>
+      </c>
+      <c r="H83" s="66">
+        <v>454</v>
+      </c>
+      <c r="I83" s="36">
+        <v>454</v>
+      </c>
+      <c r="J83" s="36">
+        <v>454</v>
+      </c>
+      <c r="K83" s="58">
+        <v>454</v>
+      </c>
+      <c r="L83" s="66">
+        <v>454</v>
+      </c>
+      <c r="M83" s="36">
+        <v>454</v>
+      </c>
+      <c r="N83" s="36">
+        <v>454</v>
+      </c>
+      <c r="O83" s="36">
+        <v>0</v>
+      </c>
+      <c r="P83" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="84" ht="24" customHeight="1">
+      <c r="B84" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="73">
+        <v>0</v>
+      </c>
+      <c r="D84" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="E84" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="F84" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="G84" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="H84" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="I84" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="J84" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="K84" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="L84" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="M84" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="N84" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="O84" s="38">
+        <v>0</v>
+      </c>
+      <c r="P84" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="74">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="85" ht="24" customHeight="1">
+      <c r="B85" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="70">
+        <v>0</v>
+      </c>
+      <c r="D85" s="71">
+        <v>1104</v>
+      </c>
+      <c r="E85" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="F85" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="G85" s="72">
+        <v>1089.6</v>
+      </c>
+      <c r="H85" s="70">
+        <v>1089.6</v>
+      </c>
+      <c r="I85" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="J85" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="K85" s="72">
+        <v>1089.6</v>
+      </c>
+      <c r="L85" s="70">
+        <v>1089.6</v>
+      </c>
+      <c r="M85" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="N85" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="O85" s="71">
+        <v>0</v>
+      </c>
+      <c r="P85" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="72">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="86" ht="30" customHeight="1">
+      <c r="B86" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="92"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="93"/>
+      <c r="J86" s="93"/>
+      <c r="K86" s="94"/>
+      <c r="L86" s="92"/>
+      <c r="M86" s="93"/>
+      <c r="N86" s="93"/>
+      <c r="O86" s="93"/>
+      <c r="P86" s="94"/>
+      <c r="Q86" s="91"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="100"/>
+      <c r="H88" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88" s="99"/>
+      <c r="J88" s="99"/>
+      <c r="K88" s="100"/>
+      <c r="L88" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="M88" s="99"/>
+      <c r="N88" s="99"/>
+      <c r="O88" s="99"/>
+      <c r="P88" s="100"/>
+      <c r="Q88" s="30"/>
+    </row>
+    <row r="89" ht="24" customHeight="1">
+      <c r="B89" s="75"/>
+      <c r="C89" s="56">
+        <v>45194</v>
+      </c>
+      <c r="D89" s="56">
+        <v>45201</v>
+      </c>
+      <c r="E89" s="56">
+        <v>45208</v>
+      </c>
+      <c r="F89" s="56">
+        <v>45215</v>
+      </c>
+      <c r="G89" s="57">
+        <v>45222</v>
+      </c>
+      <c r="H89" s="56">
+        <v>45229</v>
+      </c>
+      <c r="I89" s="56">
+        <v>45236</v>
+      </c>
+      <c r="J89" s="56">
+        <v>45243</v>
+      </c>
+      <c r="K89" s="57">
+        <v>45250</v>
+      </c>
+      <c r="L89" s="56">
+        <v>45257</v>
+      </c>
+      <c r="M89" s="56">
+        <v>45264</v>
+      </c>
+      <c r="N89" s="56">
+        <v>45271</v>
+      </c>
+      <c r="O89" s="56">
+        <v>45278</v>
+      </c>
+      <c r="P89" s="56">
+        <v>45285</v>
+      </c>
+      <c r="Q89" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" ht="24" customHeight="1">
+      <c r="B90" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C90" s="63">
+        <v>0</v>
+      </c>
+      <c r="D90" s="64">
+        <v>0.023</v>
+      </c>
+      <c r="E90" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="F90" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="G90" s="65">
+        <v>0.0227</v>
+      </c>
+      <c r="H90" s="63">
+        <v>0.0227</v>
+      </c>
+      <c r="I90" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="J90" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="K90" s="65">
+        <v>0.0227</v>
+      </c>
+      <c r="L90" s="63">
+        <v>0.0227</v>
+      </c>
+      <c r="M90" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="N90" s="64">
+        <v>0.0227</v>
+      </c>
+      <c r="O90" s="64">
+        <v>0</v>
+      </c>
+      <c r="P90" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="69">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" ht="24" customHeight="1">
+      <c r="B91" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="67">
+        <v>0</v>
+      </c>
+      <c r="D91" s="37">
+        <v>0.184</v>
+      </c>
+      <c r="E91" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="F91" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="G91" s="59">
+        <v>0.1816</v>
+      </c>
+      <c r="H91" s="67">
+        <v>0.1816</v>
+      </c>
+      <c r="I91" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="J91" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="K91" s="59">
+        <v>0.1816</v>
+      </c>
+      <c r="L91" s="67">
+        <v>0.1816</v>
+      </c>
+      <c r="M91" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="N91" s="37">
+        <v>0.1816</v>
+      </c>
+      <c r="O91" s="37">
+        <v>0</v>
+      </c>
+      <c r="P91" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" ht="24" customHeight="1">
+      <c r="B92" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="66">
+        <v>0</v>
+      </c>
+      <c r="D92" s="36">
+        <v>460</v>
+      </c>
+      <c r="E92" s="36">
+        <v>454</v>
+      </c>
+      <c r="F92" s="36">
+        <v>454</v>
+      </c>
+      <c r="G92" s="58">
+        <v>454</v>
+      </c>
+      <c r="H92" s="66">
+        <v>454</v>
+      </c>
+      <c r="I92" s="36">
+        <v>454</v>
+      </c>
+      <c r="J92" s="36">
+        <v>454</v>
+      </c>
+      <c r="K92" s="58">
+        <v>454</v>
+      </c>
+      <c r="L92" s="66">
+        <v>454</v>
+      </c>
+      <c r="M92" s="36">
+        <v>454</v>
+      </c>
+      <c r="N92" s="36">
+        <v>454</v>
+      </c>
+      <c r="O92" s="36">
+        <v>0</v>
+      </c>
+      <c r="P92" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="93" ht="24" customHeight="1">
+      <c r="B93" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="73">
+        <v>0</v>
+      </c>
+      <c r="D93" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="E93" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="F93" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="G93" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="H93" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="I93" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="J93" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="K93" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="L93" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="M93" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="N93" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="O93" s="38">
+        <v>0</v>
+      </c>
+      <c r="P93" s="74">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="74">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="94" ht="24" customHeight="1">
+      <c r="B94" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="70">
+        <v>0</v>
+      </c>
+      <c r="D94" s="71">
+        <v>1104</v>
+      </c>
+      <c r="E94" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="F94" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="G94" s="72">
+        <v>1089.6</v>
+      </c>
+      <c r="H94" s="70">
+        <v>1089.6</v>
+      </c>
+      <c r="I94" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="J94" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="K94" s="72">
+        <v>1089.6</v>
+      </c>
+      <c r="L94" s="70">
+        <v>1089.6</v>
+      </c>
+      <c r="M94" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="N94" s="71">
+        <v>1089.6</v>
+      </c>
+      <c r="O94" s="71">
+        <v>0</v>
+      </c>
+      <c r="P94" s="72">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="72">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="95" ht="30" customHeight="1">
+      <c r="B95" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="92"/>
+      <c r="D95" s="93"/>
+      <c r="E95" s="93"/>
+      <c r="F95" s="93"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="93"/>
+      <c r="J95" s="93"/>
+      <c r="K95" s="94"/>
+      <c r="L95" s="92"/>
+      <c r="M95" s="93"/>
+      <c r="N95" s="93"/>
+      <c r="O95" s="93"/>
+      <c r="P95" s="94"/>
+      <c r="Q95" s="91"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="99"/>
+      <c r="E97" s="99"/>
+      <c r="F97" s="100"/>
+      <c r="G97" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="H97" s="99"/>
+      <c r="I97" s="99"/>
+      <c r="J97" s="100"/>
+      <c r="K97" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="L97" s="99"/>
+      <c r="M97" s="99"/>
+      <c r="N97" s="99"/>
+      <c r="O97" s="100"/>
+      <c r="P97" s="30"/>
+    </row>
+    <row r="98" ht="24" customHeight="1">
+      <c r="B98" s="75"/>
+      <c r="C98" s="56">
+        <v>45292</v>
+      </c>
+      <c r="D98" s="56">
+        <v>45299</v>
+      </c>
+      <c r="E98" s="56">
+        <v>45306</v>
+      </c>
+      <c r="F98" s="57">
+        <v>45313</v>
+      </c>
+      <c r="G98" s="56">
+        <v>45320</v>
+      </c>
+      <c r="H98" s="56">
+        <v>45327</v>
+      </c>
+      <c r="I98" s="56">
+        <v>45334</v>
+      </c>
+      <c r="J98" s="57">
+        <v>45341</v>
+      </c>
+      <c r="K98" s="56">
+        <v>45348</v>
+      </c>
+      <c r="L98" s="56">
+        <v>45355</v>
+      </c>
+      <c r="M98" s="56">
+        <v>45362</v>
+      </c>
+      <c r="N98" s="56">
+        <v>45369</v>
+      </c>
+      <c r="O98" s="56">
+        <v>45376</v>
+      </c>
+      <c r="P98" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" ht="24" customHeight="1">
+      <c r="B99" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C99" s="63">
+        <v>0.0196</v>
+      </c>
+      <c r="D99" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="E99" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="F99" s="65">
+        <v>0.0192</v>
+      </c>
+      <c r="G99" s="63">
+        <v>0.0192</v>
+      </c>
+      <c r="H99" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="I99" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="J99" s="65">
+        <v>0.0192</v>
+      </c>
+      <c r="K99" s="63">
+        <v>0.0192</v>
+      </c>
+      <c r="L99" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="M99" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="N99" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="O99" s="65">
+        <v>0.0192</v>
+      </c>
+      <c r="P99" s="69">
+        <v>0.24999999999999994</v>
+      </c>
+    </row>
+    <row r="100" ht="24" customHeight="1">
+      <c r="B100" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="67">
+        <v>0.1568</v>
+      </c>
+      <c r="D100" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="E100" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="F100" s="59">
+        <v>0.1536</v>
+      </c>
+      <c r="G100" s="67">
+        <v>0.1536</v>
+      </c>
+      <c r="H100" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="I100" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="J100" s="59">
+        <v>0.1536</v>
+      </c>
+      <c r="K100" s="67">
+        <v>0.1536</v>
+      </c>
+      <c r="L100" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="M100" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="N100" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="O100" s="59">
+        <v>0.1536</v>
+      </c>
+      <c r="P100" s="59">
+        <v>1.9999999999999996</v>
+      </c>
+    </row>
+    <row r="101" ht="24" customHeight="1">
+      <c r="B101" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="66">
+        <v>392</v>
+      </c>
+      <c r="D101" s="36">
+        <v>384</v>
+      </c>
+      <c r="E101" s="36">
+        <v>384</v>
+      </c>
+      <c r="F101" s="58">
+        <v>384</v>
+      </c>
+      <c r="G101" s="66">
+        <v>384</v>
+      </c>
+      <c r="H101" s="36">
+        <v>384</v>
+      </c>
+      <c r="I101" s="36">
+        <v>384</v>
+      </c>
+      <c r="J101" s="58">
+        <v>384</v>
+      </c>
+      <c r="K101" s="66">
+        <v>384</v>
+      </c>
+      <c r="L101" s="36">
+        <v>384</v>
+      </c>
+      <c r="M101" s="36">
+        <v>384</v>
+      </c>
+      <c r="N101" s="36">
+        <v>384</v>
+      </c>
+      <c r="O101" s="58">
+        <v>384</v>
+      </c>
+      <c r="P101" s="58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="102" ht="24" customHeight="1">
+      <c r="B102" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="D102" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="E102" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="F102" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="G102" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="H102" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="I102" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="J102" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="K102" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="L102" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="M102" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="N102" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="O102" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="P102" s="74">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="103" ht="24" customHeight="1">
+      <c r="B103" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="70">
+        <v>940.8</v>
+      </c>
+      <c r="D103" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="E103" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="F103" s="72">
+        <v>921.6</v>
+      </c>
+      <c r="G103" s="70">
+        <v>921.6</v>
+      </c>
+      <c r="H103" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="I103" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="J103" s="72">
+        <v>921.6</v>
+      </c>
+      <c r="K103" s="70">
+        <v>921.6</v>
+      </c>
+      <c r="L103" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="M103" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="N103" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="O103" s="72">
+        <v>921.6</v>
+      </c>
+      <c r="P103" s="72">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="104" ht="30" customHeight="1">
+      <c r="B104" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="92"/>
+      <c r="D104" s="93"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="92"/>
+      <c r="H104" s="93"/>
+      <c r="I104" s="93"/>
+      <c r="J104" s="94"/>
+      <c r="K104" s="92"/>
+      <c r="L104" s="93"/>
+      <c r="M104" s="93"/>
+      <c r="N104" s="93"/>
+      <c r="O104" s="94"/>
+      <c r="P104" s="91"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="99"/>
+      <c r="E106" s="99"/>
+      <c r="F106" s="100"/>
+      <c r="G106" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="H106" s="99"/>
+      <c r="I106" s="99"/>
+      <c r="J106" s="100"/>
+      <c r="K106" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="L106" s="99"/>
+      <c r="M106" s="99"/>
+      <c r="N106" s="99"/>
+      <c r="O106" s="100"/>
+      <c r="P106" s="30"/>
+    </row>
+    <row r="107" ht="24" customHeight="1">
+      <c r="B107" s="75"/>
+      <c r="C107" s="56">
+        <v>45292</v>
+      </c>
+      <c r="D107" s="56">
+        <v>45299</v>
+      </c>
+      <c r="E107" s="56">
+        <v>45306</v>
+      </c>
+      <c r="F107" s="57">
+        <v>45313</v>
+      </c>
+      <c r="G107" s="56">
+        <v>45320</v>
+      </c>
+      <c r="H107" s="56">
+        <v>45327</v>
+      </c>
+      <c r="I107" s="56">
+        <v>45334</v>
+      </c>
+      <c r="J107" s="57">
+        <v>45341</v>
+      </c>
+      <c r="K107" s="56">
+        <v>45348</v>
+      </c>
+      <c r="L107" s="56">
+        <v>45355</v>
+      </c>
+      <c r="M107" s="56">
+        <v>45362</v>
+      </c>
+      <c r="N107" s="56">
+        <v>45369</v>
+      </c>
+      <c r="O107" s="56">
+        <v>45376</v>
+      </c>
+      <c r="P107" s="68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" ht="24" customHeight="1">
+      <c r="B108" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="63">
+        <v>0.0196</v>
+      </c>
+      <c r="D108" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="E108" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="F108" s="65">
+        <v>0.0192</v>
+      </c>
+      <c r="G108" s="63">
+        <v>0.0192</v>
+      </c>
+      <c r="H108" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="I108" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="J108" s="65">
+        <v>0.0192</v>
+      </c>
+      <c r="K108" s="63">
+        <v>0.0192</v>
+      </c>
+      <c r="L108" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="M108" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="N108" s="64">
+        <v>0.0192</v>
+      </c>
+      <c r="O108" s="65">
+        <v>0.0192</v>
+      </c>
+      <c r="P108" s="69">
+        <v>0.24999999999999994</v>
+      </c>
+    </row>
+    <row r="109" ht="24" customHeight="1">
+      <c r="B109" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="67">
+        <v>0.1568</v>
+      </c>
+      <c r="D109" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="E109" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="F109" s="59">
+        <v>0.1536</v>
+      </c>
+      <c r="G109" s="67">
+        <v>0.1536</v>
+      </c>
+      <c r="H109" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="I109" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="J109" s="59">
+        <v>0.1536</v>
+      </c>
+      <c r="K109" s="67">
+        <v>0.1536</v>
+      </c>
+      <c r="L109" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="M109" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="N109" s="37">
+        <v>0.1536</v>
+      </c>
+      <c r="O109" s="59">
+        <v>0.1536</v>
+      </c>
+      <c r="P109" s="59">
+        <v>1.9999999999999996</v>
+      </c>
+    </row>
+    <row r="110" ht="24" customHeight="1">
+      <c r="B110" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="66">
+        <v>392</v>
+      </c>
+      <c r="D110" s="36">
+        <v>384</v>
+      </c>
+      <c r="E110" s="36">
+        <v>384</v>
+      </c>
+      <c r="F110" s="58">
+        <v>384</v>
+      </c>
+      <c r="G110" s="66">
+        <v>384</v>
+      </c>
+      <c r="H110" s="36">
+        <v>384</v>
+      </c>
+      <c r="I110" s="36">
+        <v>384</v>
+      </c>
+      <c r="J110" s="58">
+        <v>384</v>
+      </c>
+      <c r="K110" s="66">
+        <v>384</v>
+      </c>
+      <c r="L110" s="36">
+        <v>384</v>
+      </c>
+      <c r="M110" s="36">
+        <v>384</v>
+      </c>
+      <c r="N110" s="36">
+        <v>384</v>
+      </c>
+      <c r="O110" s="58">
+        <v>384</v>
+      </c>
+      <c r="P110" s="58">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="111" ht="24" customHeight="1">
+      <c r="B111" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="D111" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="E111" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="F111" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="G111" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="H111" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="I111" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="J111" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="K111" s="73">
+        <v>2.4</v>
+      </c>
+      <c r="L111" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="M111" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="N111" s="38">
+        <v>2.4</v>
+      </c>
+      <c r="O111" s="74">
+        <v>2.4</v>
+      </c>
+      <c r="P111" s="74">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="112" ht="24" customHeight="1">
+      <c r="B112" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="70">
+        <v>940.8</v>
+      </c>
+      <c r="D112" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="E112" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="F112" s="72">
+        <v>921.6</v>
+      </c>
+      <c r="G112" s="70">
+        <v>921.6</v>
+      </c>
+      <c r="H112" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="I112" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="J112" s="72">
+        <v>921.6</v>
+      </c>
+      <c r="K112" s="70">
+        <v>921.6</v>
+      </c>
+      <c r="L112" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="M112" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="N112" s="71">
+        <v>921.6</v>
+      </c>
+      <c r="O112" s="72">
+        <v>921.6</v>
+      </c>
+      <c r="P112" s="72">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="113" ht="30" customHeight="1">
+      <c r="B113" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="92"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="92"/>
+      <c r="H113" s="93"/>
+      <c r="I113" s="93"/>
+      <c r="J113" s="94"/>
+      <c r="K113" s="92"/>
+      <c r="L113" s="93"/>
+      <c r="M113" s="93"/>
+      <c r="N113" s="93"/>
+      <c r="O113" s="94"/>
+      <c r="P113" s="91"/>
+    </row>
+    <row r="116" ht="24" customHeight="1">
+      <c r="P116" s="60"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4236,16 +5586,28 @@
     <mergeCell ref="L34:O34"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:P43"/>
+    <mergeCell ref="L43:O43"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:P52"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:O70"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:P79"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:P88"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="K97:O97"/>
+    <mergeCell ref="C106:F106"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="K106:O106"/>
   </mergeCells>
   <conditionalFormatting sqref="C4">
     <cfRule type="expression" dxfId="0" priority="3">
@@ -4350,7 +5712,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>16</v>
@@ -4383,7 +5745,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="B7" s="53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -4607,13 +5969,13 @@
         <f>SUM(J9:J10)</f>
         <v>27669</v>
       </c>
-      <c r="K11" s="47">
+      <c r="K11" s="47" t="e">
         <f>E11/J11</f>
-        <v>3.6914958979363188</v>
-      </c>
-      <c r="L11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" s="43" t="e">
         <f>E11/H11</f>
-        <v>4426.1035816256463</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M11" s="31"/>
       <c r="N11" s="45" t="s">
@@ -4633,18 +5995,18 @@
         <f>SUM(R9:R10)</f>
         <v>8189.91</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="47" t="e">
         <f>E11/R11</f>
-        <v>12.471443520136363</v>
-      </c>
-      <c r="T11" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T11" s="43" t="e">
         <f>E11/P11</f>
-        <v>12482.667819304488</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="B13" s="53" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4864,13 +6226,13 @@
         <f>SUM(J15:J16)</f>
         <v>24004</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="47" t="e">
         <f>E17/J17</f>
-        <v>4.78253624395934</v>
-      </c>
-      <c r="L17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" s="43" t="e">
         <f>E17/H17</f>
-        <v>5734.2609565072489</v>
+        <v>#VALUE!</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="45" t="s">
@@ -4890,13 +6252,13 @@
         <f>SUM(R15:R16)</f>
         <v>7099.380000000001</v>
       </c>
-      <c r="S17" s="47">
+      <c r="S17" s="47" t="e">
         <f>E17/R17</f>
-        <v>16.170426149889142</v>
-      </c>
-      <c r="T17" s="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T17" s="43" t="e">
         <f>E17/P17</f>
-        <v>16184.979533424046</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" ht="24" customHeight="1">
@@ -6879,9 +8241,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T40"/>
+  <dimension ref="A2:T44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="1">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0" tabSelected="0">
       <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
@@ -6906,10 +8268,10 @@
     <row r="2" ht="27.95" customHeight="1">
       <c r="E2" s="5"/>
       <c r="F2" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1"/>
@@ -6944,24 +8306,24 @@
     </row>
     <row r="5" ht="18" customHeight="1" s="3" customFormat="1">
       <c r="C5" s="95" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="95" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F5" s="95"/>
       <c r="G5" s="95"/>
       <c r="H5" s="95" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I5" s="95"/>
       <c r="J5" s="95" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="95" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M5" s="95"/>
       <c r="N5" s="76" t="s">
@@ -6993,7 +8355,7 @@
     </row>
     <row r="7" ht="24" customHeight="1">
       <c r="C7" s="53" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="7"/>
@@ -7008,7 +8370,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="100"/>
       <c r="N7" s="98" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O7" s="99"/>
       <c r="P7" s="99"/>
@@ -7019,14 +8381,14 @@
     </row>
     <row r="8" ht="24" customHeight="1">
       <c r="A8" s="80" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>23</v>
@@ -7079,53 +8441,53 @@
     </row>
     <row r="9" ht="24" customHeight="1">
       <c r="A9" s="80" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E9" s="83">
-        <v>0</v>
+        <v>1.9999999999999996</v>
       </c>
       <c r="F9" s="84">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G9" s="85">
         <v>12000</v>
       </c>
       <c r="H9" s="86">
-        <v>0</v>
+        <v>3.2000001024000033</v>
       </c>
       <c r="I9" s="87">
-        <v>3.9999999999999991</v>
+        <v>6.4000002048000049</v>
       </c>
       <c r="J9" s="83">
-        <v>0</v>
+        <v>3852.080123266564</v>
       </c>
       <c r="K9" s="83">
-        <v>4858.382</v>
+        <v>7704.1602465331262</v>
       </c>
       <c r="L9" s="88">
-        <v>2.4699581053939359</v>
+        <v>1.5575999999999997</v>
       </c>
       <c r="M9" s="85">
-        <v>3000</v>
+        <v>1874.999940000002</v>
       </c>
       <c r="N9" s="89">
-        <v>1.0291492105808067</v>
+        <v>0.64900000000000013</v>
       </c>
       <c r="O9" s="86">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P9" s="87">
         <v>3.899999999999999</v>
       </c>
       <c r="Q9" s="83">
-        <v>0</v>
+        <v>2500.0000000000005</v>
       </c>
       <c r="R9" s="83">
         <v>5000</v>
@@ -7141,10 +8503,10 @@
       <c r="B10" s="25"/>
       <c r="C10" s="39"/>
       <c r="D10" s="40" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E10" s="51">
-        <v>0</v>
+        <v>1.9999999999999996</v>
       </c>
       <c r="F10" s="42" t="s">
         <v>38</v>
@@ -7156,19 +8518,19 @@
         <v>38</v>
       </c>
       <c r="I10" s="79">
-        <v>3.9999999999999991</v>
+        <v>6.4000002048000049</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="51">
-        <v>4858.382</v>
+        <v>7704.1602465331262</v>
       </c>
       <c r="L10" s="47">
-        <v>2.4699581053939359</v>
+        <v>1.5575999999999997</v>
       </c>
       <c r="M10" s="43">
-        <v>3000</v>
+        <v>1874.999940000002</v>
       </c>
       <c r="N10" s="45" t="s">
         <v>38</v>
@@ -7194,7 +8556,7 @@
     </row>
     <row r="12" ht="24" customHeight="1">
       <c r="C12" s="53" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="7"/>
@@ -7209,7 +8571,7 @@
       <c r="L12" s="99"/>
       <c r="M12" s="100"/>
       <c r="N12" s="98" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O12" s="99"/>
       <c r="P12" s="99"/>
@@ -7220,14 +8582,14 @@
     </row>
     <row r="13" ht="24" customHeight="1">
       <c r="A13" s="80" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="39" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>23</v>
@@ -7280,814 +8642,971 @@
     </row>
     <row r="14" ht="24" customHeight="1">
       <c r="A14" s="80" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="8" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="83">
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="F14" s="84">
+        <v>5823.5294117647054</v>
+      </c>
+      <c r="G14" s="85">
+        <v>3960</v>
+      </c>
+      <c r="H14" s="86">
+        <v>2.9684817220186832</v>
+      </c>
+      <c r="I14" s="87">
+        <v>2.0185675709727051</v>
+      </c>
+      <c r="J14" s="83">
+        <v>3578.8651743883379</v>
+      </c>
+      <c r="K14" s="83">
+        <v>2433.6283185840703</v>
+      </c>
+      <c r="L14" s="88">
+        <v>1.6272000000000007</v>
+      </c>
+      <c r="M14" s="85">
+        <v>1961.787188571433</v>
+      </c>
+      <c r="N14" s="89">
+        <v>0.67800000000000016</v>
+      </c>
+      <c r="O14" s="86">
+        <v>1.9117647058823526</v>
+      </c>
+      <c r="P14" s="87">
+        <v>1.3</v>
+      </c>
+      <c r="Q14" s="83">
+        <v>2426.4705882352937</v>
+      </c>
+      <c r="R14" s="83">
+        <v>1650</v>
+      </c>
+      <c r="S14" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="T14" s="85">
+        <v>3046.1538461538462</v>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1">
+      <c r="A15" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="83">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="F15" s="84">
+        <v>6181.8181818181811</v>
+      </c>
+      <c r="G15" s="85">
+        <v>4080</v>
+      </c>
+      <c r="H15" s="86">
+        <v>3.291920440294724</v>
+      </c>
+      <c r="I15" s="87">
+        <v>2.1726674905945176</v>
+      </c>
+      <c r="J15" s="83">
+        <v>3968.809823971611</v>
+      </c>
+      <c r="K15" s="83">
+        <v>2619.4144838212628</v>
+      </c>
+      <c r="L15" s="88">
+        <v>1.5576000000000023</v>
+      </c>
+      <c r="M15" s="85">
+        <v>1877.8759371428553</v>
+      </c>
+      <c r="N15" s="89">
+        <v>0.64900000000000013</v>
+      </c>
+      <c r="O15" s="86">
+        <v>1.96969696969697</v>
+      </c>
+      <c r="P15" s="87">
+        <v>1.3</v>
+      </c>
+      <c r="Q15" s="83">
+        <v>2575.757575757576</v>
+      </c>
+      <c r="R15" s="83">
+        <v>1700</v>
+      </c>
+      <c r="S15" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="T15" s="85">
+        <v>3138.4615384615381</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1">
+      <c r="A16" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="83">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="F16" s="84">
+        <v>6000</v>
+      </c>
+      <c r="G16" s="85">
+        <v>3960</v>
+      </c>
+      <c r="H16" s="86">
+        <v>3.195099250874291</v>
+      </c>
+      <c r="I16" s="87">
+        <v>2.1087655055770318</v>
+      </c>
+      <c r="J16" s="83">
+        <v>3852.080123266564</v>
+      </c>
+      <c r="K16" s="83">
+        <v>2542.3728813559319</v>
+      </c>
+      <c r="L16" s="88">
+        <v>1.5576000000000012</v>
+      </c>
+      <c r="M16" s="85">
+        <v>1877.8759371428587</v>
+      </c>
+      <c r="N16" s="89">
+        <v>0.64900000000000013</v>
+      </c>
+      <c r="O16" s="86">
+        <v>1.96969696969697</v>
+      </c>
+      <c r="P16" s="87">
+        <v>1.3</v>
+      </c>
+      <c r="Q16" s="83">
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="R16" s="83">
+        <v>1650</v>
+      </c>
+      <c r="S16" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="T16" s="85">
+        <v>3046.1538461538462</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1">
+      <c r="B17" s="25"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="51">
+        <v>2</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="43">
+        <v>12000</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="79">
+        <v>6.3000005671442549</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="51">
+        <v>7595.4156837612645</v>
+      </c>
+      <c r="L17" s="47">
+        <v>1.5799003635384423</v>
+      </c>
+      <c r="M17" s="43">
+        <v>1904.7617332897326</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" s="79">
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="Q17" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="51">
+        <v>5000</v>
+      </c>
+      <c r="S17" s="47">
+        <v>2.4</v>
+      </c>
+      <c r="T17" s="43">
+        <v>3076.9230769230762</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1">
+      <c r="C19" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="100"/>
+    </row>
+    <row r="20" ht="24" customHeight="1">
+      <c r="A20" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="83">
-        <v>0</v>
-      </c>
-      <c r="F14" s="84">
-        <v>0</v>
-      </c>
-      <c r="G14" s="85">
-        <v>12000</v>
-      </c>
-      <c r="H14" s="86">
-        <v>0</v>
-      </c>
-      <c r="I14" s="87">
-        <v>3.9999999999999991</v>
-      </c>
-      <c r="J14" s="83">
-        <v>0</v>
-      </c>
-      <c r="K14" s="83">
-        <v>4858.382</v>
-      </c>
-      <c r="L14" s="88">
-        <v>2.4699581053939359</v>
-      </c>
-      <c r="M14" s="85">
-        <v>3000</v>
-      </c>
-      <c r="N14" s="89">
-        <v>1.0291492105808067</v>
-      </c>
-      <c r="O14" s="86">
-        <v>0</v>
-      </c>
-      <c r="P14" s="87">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="Q14" s="83">
-        <v>0</v>
-      </c>
-      <c r="R14" s="83">
-        <v>5000</v>
-      </c>
-      <c r="S14" s="88">
-        <v>2.4</v>
-      </c>
-      <c r="T14" s="85">
-        <v>3076.9230769230762</v>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1">
-      <c r="B15" s="25"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="51">
-        <v>0</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="43">
-        <v>12000</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="79">
-        <v>3.9999999999999991</v>
-      </c>
-      <c r="J15" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="51">
-        <v>4858.382</v>
-      </c>
-      <c r="L15" s="47">
-        <v>2.4699581053939359</v>
-      </c>
-      <c r="M15" s="43">
-        <v>3000</v>
-      </c>
-      <c r="N15" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="P15" s="79">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="Q15" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" s="51">
-        <v>5000</v>
-      </c>
-      <c r="S15" s="47">
-        <v>2.4</v>
-      </c>
-      <c r="T15" s="43">
-        <v>3076.9230769230762</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1">
-      <c r="C17" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
-    </row>
-    <row r="18" ht="24" customHeight="1">
-      <c r="A18" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="39" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1">
-      <c r="A19" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="83">
-        <v>0</v>
-      </c>
-      <c r="F19" s="84">
-        <v>0</v>
-      </c>
-      <c r="G19" s="85">
-        <v>12000</v>
-      </c>
-      <c r="H19" s="86">
-        <v>0</v>
-      </c>
-      <c r="I19" s="87">
-        <v>4</v>
-      </c>
-      <c r="J19" s="83">
-        <v>0</v>
-      </c>
-      <c r="K19" s="83">
-        <v>4858.382</v>
-      </c>
-      <c r="L19" s="88">
-        <v>2.4699581053939359</v>
-      </c>
-      <c r="M19" s="85">
-        <v>3000</v>
-      </c>
-      <c r="N19" s="89">
-        <v>1.0291492105808067</v>
-      </c>
-      <c r="O19" s="86">
-        <v>0</v>
-      </c>
-      <c r="P19" s="87">
-        <v>3.2999999999999994</v>
-      </c>
-      <c r="Q19" s="83">
-        <v>0</v>
-      </c>
-      <c r="R19" s="83">
-        <v>5000</v>
-      </c>
-      <c r="S19" s="88">
-        <v>2.4</v>
-      </c>
-      <c r="T19" s="85">
-        <v>3636.363636363636</v>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1">
-      <c r="B20" s="25"/>
-      <c r="C20" s="39"/>
       <c r="D20" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="51">
-        <v>0</v>
-      </c>
-      <c r="F20" s="42" t="s">
+      <c r="E20" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1">
+      <c r="A21" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="83">
+        <v>2</v>
+      </c>
+      <c r="F21" s="84">
+        <v>6000</v>
+      </c>
+      <c r="G21" s="85">
+        <v>12000</v>
+      </c>
+      <c r="H21" s="86">
+        <v>3.2000001024000038</v>
+      </c>
+      <c r="I21" s="87">
+        <v>6.4000002048000075</v>
+      </c>
+      <c r="J21" s="83">
+        <v>3852.0801232665635</v>
+      </c>
+      <c r="K21" s="83">
+        <v>7704.1602465331271</v>
+      </c>
+      <c r="L21" s="88">
+        <v>1.5575999999999997</v>
+      </c>
+      <c r="M21" s="85">
+        <v>1874.9999399999992</v>
+      </c>
+      <c r="N21" s="89">
+        <v>0.649</v>
+      </c>
+      <c r="O21" s="86">
+        <v>1.6499999999999997</v>
+      </c>
+      <c r="P21" s="87">
+        <v>3.2999999999999994</v>
+      </c>
+      <c r="Q21" s="83">
+        <v>2500</v>
+      </c>
+      <c r="R21" s="83">
+        <v>5000</v>
+      </c>
+      <c r="S21" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="T21" s="85">
+        <v>3636.363636363636</v>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1">
+      <c r="B22" s="25"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="51">
+        <v>2</v>
+      </c>
+      <c r="F22" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G22" s="43">
         <v>12000</v>
       </c>
-      <c r="H20" s="52" t="s">
+      <c r="H22" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="79">
-        <v>4</v>
-      </c>
-      <c r="J20" s="51" t="s">
+      <c r="I22" s="79">
+        <v>6.4000002048000075</v>
+      </c>
+      <c r="J22" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="51">
-        <v>4858.382</v>
-      </c>
-      <c r="L20" s="47">
-        <v>2.4699581053939359</v>
-      </c>
-      <c r="M20" s="43">
-        <v>3000</v>
-      </c>
-      <c r="N20" s="45" t="s">
+      <c r="K22" s="51">
+        <v>7704.1602465331271</v>
+      </c>
+      <c r="L22" s="47">
+        <v>1.5575999999999997</v>
+      </c>
+      <c r="M22" s="43">
+        <v>1874.9999399999992</v>
+      </c>
+      <c r="N22" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="O20" s="50" t="s">
+      <c r="O22" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="79">
+      <c r="P22" s="79">
         <v>3.2999999999999994</v>
       </c>
-      <c r="Q20" s="51" t="s">
+      <c r="Q22" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="51">
+      <c r="R22" s="51">
         <v>5000</v>
       </c>
-      <c r="S20" s="47">
-        <v>2.4</v>
-      </c>
-      <c r="T20" s="43">
+      <c r="S22" s="47">
+        <v>2.4</v>
+      </c>
+      <c r="T22" s="43">
         <v>3636.363636363636</v>
       </c>
     </row>
-    <row r="22" ht="24" customHeight="1">
-      <c r="C22" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="98" t="s">
+    <row r="24" ht="24" customHeight="1">
+      <c r="C24" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="100"/>
-    </row>
-    <row r="23" ht="24" customHeight="1">
-      <c r="A23" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="39" t="s">
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="100"/>
+    </row>
+    <row r="25" ht="24" customHeight="1">
+      <c r="A25" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q23" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S23" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="T23" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" ht="24" customHeight="1">
-      <c r="A24" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="83">
-        <v>0</v>
-      </c>
-      <c r="F24" s="84">
-        <v>0</v>
-      </c>
-      <c r="G24" s="85">
-        <v>12000</v>
-      </c>
-      <c r="H24" s="86">
-        <v>0</v>
-      </c>
-      <c r="I24" s="87">
-        <v>3.9999999999999991</v>
-      </c>
-      <c r="J24" s="83">
-        <v>0</v>
-      </c>
-      <c r="K24" s="83">
-        <v>4858.382</v>
-      </c>
-      <c r="L24" s="88">
-        <v>2.4699581053939359</v>
-      </c>
-      <c r="M24" s="85">
-        <v>3000</v>
-      </c>
-      <c r="N24" s="89">
-        <v>1.0291492105808067</v>
-      </c>
-      <c r="O24" s="86">
-        <v>0</v>
-      </c>
-      <c r="P24" s="87">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="Q24" s="83">
-        <v>0</v>
-      </c>
-      <c r="R24" s="83">
-        <v>5000</v>
-      </c>
-      <c r="S24" s="88">
-        <v>2.4</v>
-      </c>
-      <c r="T24" s="85">
-        <v>3076.9230769230762</v>
-      </c>
-    </row>
-    <row r="25" ht="24" customHeight="1">
-      <c r="B25" s="25"/>
-      <c r="C25" s="39"/>
       <c r="D25" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="51">
-        <v>0</v>
-      </c>
-      <c r="F25" s="42" t="s">
+      <c r="E25" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" ht="24" customHeight="1">
+      <c r="A26" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="83">
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="F26" s="84">
+        <v>6000</v>
+      </c>
+      <c r="G26" s="85">
+        <v>12000</v>
+      </c>
+      <c r="H26" s="86">
+        <v>3.2000001024000033</v>
+      </c>
+      <c r="I26" s="87">
+        <v>6.4000002048000049</v>
+      </c>
+      <c r="J26" s="83">
+        <v>3852.080123266564</v>
+      </c>
+      <c r="K26" s="83">
+        <v>7704.1602465331262</v>
+      </c>
+      <c r="L26" s="88">
+        <v>1.5575999999999997</v>
+      </c>
+      <c r="M26" s="85">
+        <v>1874.999940000002</v>
+      </c>
+      <c r="N26" s="89">
+        <v>0.64900000000000013</v>
+      </c>
+      <c r="O26" s="86">
+        <v>1.95</v>
+      </c>
+      <c r="P26" s="87">
+        <v>3.899999999999999</v>
+      </c>
+      <c r="Q26" s="83">
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="R26" s="83">
+        <v>5000</v>
+      </c>
+      <c r="S26" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="T26" s="85">
+        <v>3076.9230769230762</v>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1">
+      <c r="B27" s="25"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="51">
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="F27" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G27" s="43">
         <v>12000</v>
       </c>
-      <c r="H25" s="52" t="s">
+      <c r="H27" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="79">
-        <v>3.9999999999999991</v>
-      </c>
-      <c r="J25" s="51" t="s">
+      <c r="I27" s="79">
+        <v>6.4000002048000049</v>
+      </c>
+      <c r="J27" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="51">
-        <v>4858.382</v>
-      </c>
-      <c r="L25" s="47">
-        <v>2.4699581053939359</v>
-      </c>
-      <c r="M25" s="43">
-        <v>3000</v>
-      </c>
-      <c r="N25" s="45" t="s">
+      <c r="K27" s="51">
+        <v>7704.1602465331262</v>
+      </c>
+      <c r="L27" s="47">
+        <v>1.5575999999999997</v>
+      </c>
+      <c r="M27" s="43">
+        <v>1874.999940000002</v>
+      </c>
+      <c r="N27" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="O25" s="50" t="s">
+      <c r="O27" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="P25" s="79">
+      <c r="P27" s="79">
         <v>3.899999999999999</v>
       </c>
-      <c r="Q25" s="51" t="s">
+      <c r="Q27" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R25" s="51">
+      <c r="R27" s="51">
         <v>5000</v>
       </c>
-      <c r="S25" s="47">
-        <v>2.4</v>
-      </c>
-      <c r="T25" s="43">
+      <c r="S27" s="47">
+        <v>2.4</v>
+      </c>
+      <c r="T27" s="43">
         <v>3076.9230769230762</v>
       </c>
     </row>
-    <row r="27" ht="24" customHeight="1">
-      <c r="C27" s="53" t="s">
+    <row r="29" ht="24" customHeight="1">
+      <c r="C29" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="98" t="s">
+      <c r="D29" s="53"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="98" t="s">
-        <v>83</v>
-      </c>
-      <c r="O27" s="99"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="99"/>
-      <c r="T27" s="100"/>
-    </row>
-    <row r="28" ht="24" customHeight="1">
-      <c r="A28" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="39" t="s">
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="100"/>
+    </row>
+    <row r="30" ht="24" customHeight="1">
+      <c r="A30" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q28" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="R28" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="T28" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" ht="24" customHeight="1">
-      <c r="A29" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="83">
-        <v>0</v>
-      </c>
-      <c r="F29" s="84">
-        <v>0</v>
-      </c>
-      <c r="G29" s="85">
-        <v>48000</v>
-      </c>
-      <c r="H29" s="86">
-        <v>0</v>
-      </c>
-      <c r="I29" s="87">
-        <v>15.999999999999996</v>
-      </c>
-      <c r="J29" s="83">
-        <v>0</v>
-      </c>
-      <c r="K29" s="83">
-        <v>19433.528</v>
-      </c>
-      <c r="L29" s="88">
-        <v>2.4699581053939359</v>
-      </c>
-      <c r="M29" s="85">
-        <v>3000</v>
-      </c>
-      <c r="N29" s="89">
-        <v>1.0291492105808067</v>
-      </c>
-      <c r="O29" s="86">
-        <v>0</v>
-      </c>
-      <c r="P29" s="87">
-        <v>14.999999999999996</v>
-      </c>
-      <c r="Q29" s="83">
-        <v>0</v>
-      </c>
-      <c r="R29" s="83">
-        <v>20000</v>
-      </c>
-      <c r="S29" s="88">
-        <v>2.4</v>
-      </c>
-      <c r="T29" s="85">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="30" ht="24" customHeight="1">
-      <c r="B30" s="25"/>
-      <c r="C30" s="39"/>
       <c r="D30" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="51">
-        <v>0</v>
-      </c>
-      <c r="F30" s="42" t="s">
+      <c r="E30" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" ht="24" customHeight="1">
+      <c r="A31" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="83">
+        <v>6.6599999999999984</v>
+      </c>
+      <c r="F31" s="84">
+        <v>6018.0180180180178</v>
+      </c>
+      <c r="G31" s="85">
+        <v>40080</v>
+      </c>
+      <c r="H31" s="86">
+        <v>12.891920747494734</v>
+      </c>
+      <c r="I31" s="87">
+        <v>21.372668104994535</v>
+      </c>
+      <c r="J31" s="83">
+        <v>15525.050193771302</v>
+      </c>
+      <c r="K31" s="83">
+        <v>25731.895223420641</v>
+      </c>
+      <c r="L31" s="88">
+        <v>1.5576000000000028</v>
+      </c>
+      <c r="M31" s="85">
+        <v>1875.2923033804025</v>
+      </c>
+      <c r="N31" s="89">
+        <v>0.64900000000000013</v>
+      </c>
+      <c r="O31" s="86">
+        <v>7.5196969696969695</v>
+      </c>
+      <c r="P31" s="87">
+        <v>12.399999999999997</v>
+      </c>
+      <c r="Q31" s="83">
+        <v>10075.757575757576</v>
+      </c>
+      <c r="R31" s="83">
+        <v>16700</v>
+      </c>
+      <c r="S31" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="T31" s="85">
+        <v>3232.2580645161288</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1">
+      <c r="A32" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="83">
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="F32" s="84">
+        <v>5823.5294117647054</v>
+      </c>
+      <c r="G32" s="85">
+        <v>3960</v>
+      </c>
+      <c r="H32" s="86">
+        <v>2.9684817220186832</v>
+      </c>
+      <c r="I32" s="87">
+        <v>2.0185675709727051</v>
+      </c>
+      <c r="J32" s="83">
+        <v>3578.8651743883379</v>
+      </c>
+      <c r="K32" s="83">
+        <v>2433.6283185840703</v>
+      </c>
+      <c r="L32" s="88">
+        <v>1.6272000000000007</v>
+      </c>
+      <c r="M32" s="85">
+        <v>1961.787188571433</v>
+      </c>
+      <c r="N32" s="89">
+        <v>0.67800000000000016</v>
+      </c>
+      <c r="O32" s="86">
+        <v>1.9117647058823526</v>
+      </c>
+      <c r="P32" s="87">
+        <v>1.3</v>
+      </c>
+      <c r="Q32" s="83">
+        <v>2426.4705882352937</v>
+      </c>
+      <c r="R32" s="83">
+        <v>1650</v>
+      </c>
+      <c r="S32" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="T32" s="85">
+        <v>3046.1538461538462</v>
+      </c>
+    </row>
+    <row r="33" ht="24" customHeight="1">
+      <c r="A33" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="83">
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="F33" s="84">
+        <v>6000</v>
+      </c>
+      <c r="G33" s="85">
+        <v>3960</v>
+      </c>
+      <c r="H33" s="86">
+        <v>3.195099250874291</v>
+      </c>
+      <c r="I33" s="87">
+        <v>2.1087655055770318</v>
+      </c>
+      <c r="J33" s="83">
+        <v>3852.080123266564</v>
+      </c>
+      <c r="K33" s="83">
+        <v>2542.3728813559319</v>
+      </c>
+      <c r="L33" s="88">
+        <v>1.5576000000000012</v>
+      </c>
+      <c r="M33" s="85">
+        <v>1877.8759371428587</v>
+      </c>
+      <c r="N33" s="89">
+        <v>0.64900000000000013</v>
+      </c>
+      <c r="O33" s="86">
+        <v>1.96969696969697</v>
+      </c>
+      <c r="P33" s="87">
+        <v>1.3</v>
+      </c>
+      <c r="Q33" s="83">
+        <v>2500.0000000000005</v>
+      </c>
+      <c r="R33" s="83">
+        <v>1650</v>
+      </c>
+      <c r="S33" s="88">
+        <v>2.4</v>
+      </c>
+      <c r="T33" s="85">
+        <v>3046.1538461538462</v>
+      </c>
+    </row>
+    <row r="34" ht="24" customHeight="1">
+      <c r="B34" s="25"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="51">
+        <v>7.9999999999999982</v>
+      </c>
+      <c r="F34" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G34" s="43">
         <v>48000</v>
       </c>
-      <c r="H30" s="52" t="s">
+      <c r="H34" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="79">
-        <v>15.999999999999996</v>
-      </c>
-      <c r="J30" s="51" t="s">
+      <c r="I34" s="79">
+        <v>25.500001181544274</v>
+      </c>
+      <c r="J34" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="K30" s="51">
-        <v>19433.528</v>
-      </c>
-      <c r="L30" s="47">
-        <v>2.4699581053939359</v>
-      </c>
-      <c r="M30" s="43">
-        <v>3000</v>
-      </c>
-      <c r="N30" s="45" t="s">
+      <c r="K34" s="51">
+        <v>30707.896423360642</v>
+      </c>
+      <c r="L34" s="47">
+        <v>1.5631158623905177</v>
+      </c>
+      <c r="M34" s="43">
+        <v>1882.3528539575182</v>
+      </c>
+      <c r="N34" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="O30" s="50" t="s">
+      <c r="O34" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="P30" s="79">
-        <v>14.999999999999996</v>
-      </c>
-      <c r="Q30" s="51" t="s">
+      <c r="P34" s="79">
+        <v>14.999999999999998</v>
+      </c>
+      <c r="Q34" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="R30" s="51">
+      <c r="R34" s="51">
         <v>20000</v>
       </c>
-      <c r="S30" s="47">
-        <v>2.4</v>
-      </c>
-      <c r="T30" s="43">
+      <c r="S34" s="47">
+        <v>2.4</v>
+      </c>
+      <c r="T34" s="43">
         <v>3200</v>
       </c>
-    </row>
-    <row r="32" ht="48" customHeight="1">
-      <c r="C32" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="104"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="104"/>
-    </row>
-    <row r="33" ht="8.1" customHeight="1">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-    </row>
-    <row r="34" ht="48" customHeight="1" s="81" customFormat="1">
-      <c r="C34" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="55"/>
-      <c r="F34" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
-      <c r="O34" s="104"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="104"/>
-    </row>
-    <row r="35" ht="8.1" customHeight="1">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
     </row>
     <row r="36" ht="48" customHeight="1">
       <c r="C36" s="55" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="81"/>
-      <c r="F36" s="104"/>
+      <c r="F36" s="104" t="s">
+        <v>101</v>
+      </c>
       <c r="G36" s="104"/>
       <c r="H36" s="104"/>
       <c r="I36" s="104"/>
@@ -8106,28 +9625,30 @@
     <row r="37" ht="8.1" customHeight="1">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="82"/>
-    </row>
-    <row r="38" ht="48.95" customHeight="1" s="81" customFormat="1">
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
+    </row>
+    <row r="38" ht="48" customHeight="1" s="81" customFormat="1">
       <c r="C38" s="55" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D38" s="55"/>
-      <c r="F38" s="104"/>
+      <c r="F38" s="104" t="s">
+        <v>54</v>
+      </c>
       <c r="G38" s="104"/>
       <c r="H38" s="104"/>
       <c r="I38" s="104"/>
@@ -8162,28 +9683,111 @@
       <c r="S39" s="82"/>
       <c r="T39" s="82"/>
     </row>
-    <row r="40" ht="147" customHeight="1">
+    <row r="40" ht="48" customHeight="1">
       <c r="C40" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="55"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="104"/>
+    </row>
+    <row r="41" ht="8.1" customHeight="1">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+    </row>
+    <row r="42" ht="48.95" customHeight="1" s="81" customFormat="1">
+      <c r="C42" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="55"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+    </row>
+    <row r="43" ht="8.1" customHeight="1">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+    </row>
+    <row r="44" ht="147" customHeight="1">
+      <c r="C44" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="F40" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
+      <c r="D44" s="55"/>
+      <c r="F44" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -8191,24 +9795,24 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F34:T34"/>
-    <mergeCell ref="F36:T36"/>
     <mergeCell ref="F38:T38"/>
     <mergeCell ref="F40:T40"/>
+    <mergeCell ref="F42:T42"/>
+    <mergeCell ref="F44:T44"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:S5"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="N7:T7"/>
-    <mergeCell ref="F32:T32"/>
+    <mergeCell ref="F36:T36"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:T12"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:T17"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:T22"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:T27"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:T19"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:T24"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:T29"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:T3 C5 C4:N4 P4 R4:T4 T5 C6:T1048576">
     <cfRule type="expression" dxfId="0" priority="15">
